--- a/AAII_Financials/Yearly/MNSO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MNSO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
   <si>
     <t>MNSO</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -713,13 +713,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1396900</v>
+        <v>1420300</v>
       </c>
       <c r="E8" s="3">
-        <v>1382600</v>
+        <v>1405800</v>
       </c>
       <c r="F8" s="3">
-        <v>1446600</v>
+        <v>1470900</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1022600</v>
+        <v>1039700</v>
       </c>
       <c r="E9" s="3">
-        <v>961800</v>
+        <v>978000</v>
       </c>
       <c r="F9" s="3">
-        <v>1060000</v>
+        <v>1077700</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -767,13 +767,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>374300</v>
+        <v>380500</v>
       </c>
       <c r="E10" s="3">
-        <v>420800</v>
+        <v>427800</v>
       </c>
       <c r="F10" s="3">
-        <v>386600</v>
+        <v>393100</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -861,13 +861,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>500</v>
+        <v>-6800</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -925,13 +925,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1335100</v>
+        <v>1357500</v>
       </c>
       <c r="E17" s="3">
-        <v>1264500</v>
+        <v>1285700</v>
       </c>
       <c r="F17" s="3">
-        <v>1290100</v>
+        <v>1311700</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -952,13 +952,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>61800</v>
+        <v>62800</v>
       </c>
       <c r="E18" s="3">
-        <v>118000</v>
+        <v>120000</v>
       </c>
       <c r="F18" s="3">
-        <v>156500</v>
+        <v>159200</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -992,13 +992,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-249000</v>
+        <v>-248800</v>
       </c>
       <c r="E20" s="3">
-        <v>-100800</v>
+        <v>-102500</v>
       </c>
       <c r="F20" s="3">
-        <v>-108200</v>
+        <v>-110000</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1019,13 +1019,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-187300</v>
-      </c>
-      <c r="E21" s="3">
-        <v>17300</v>
-      </c>
-      <c r="F21" s="3">
-        <v>48400</v>
+        <v>-144500</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1045,11 +1045,11 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>4400</v>
       </c>
       <c r="E22" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="F22" s="3">
         <v>3900</v>
@@ -1073,13 +1073,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-187300</v>
+        <v>-190400</v>
       </c>
       <c r="E23" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="F23" s="3">
-        <v>44500</v>
+        <v>45200</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -1100,13 +1100,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>32800</v>
+        <v>33400</v>
       </c>
       <c r="E24" s="3">
-        <v>32500</v>
+        <v>33000</v>
       </c>
       <c r="F24" s="3">
-        <v>43100</v>
+        <v>43800</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1154,10 +1154,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-220100</v>
+        <v>-223800</v>
       </c>
       <c r="E26" s="3">
-        <v>-20000</v>
+        <v>-20400</v>
       </c>
       <c r="F26" s="3">
         <v>1500</v>
@@ -1181,13 +1181,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-217900</v>
+        <v>-221500</v>
       </c>
       <c r="E27" s="3">
-        <v>-20400</v>
+        <v>-20700</v>
       </c>
       <c r="F27" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -1238,10 +1238,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-20000</v>
+        <v>-20400</v>
       </c>
       <c r="F29" s="3">
-        <v>-46800</v>
+        <v>-47600</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
@@ -1316,13 +1316,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>249000</v>
+        <v>248800</v>
       </c>
       <c r="E32" s="3">
-        <v>100800</v>
+        <v>102500</v>
       </c>
       <c r="F32" s="3">
-        <v>108200</v>
+        <v>110000</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1343,13 +1343,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-217900</v>
+        <v>-221500</v>
       </c>
       <c r="E33" s="3">
-        <v>-40400</v>
+        <v>-41100</v>
       </c>
       <c r="F33" s="3">
-        <v>-44800</v>
+        <v>-45500</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -1397,13 +1397,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-217900</v>
+        <v>-221500</v>
       </c>
       <c r="E35" s="3">
-        <v>-40400</v>
+        <v>-41100</v>
       </c>
       <c r="F35" s="3">
-        <v>-44800</v>
+        <v>-45500</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1042700</v>
+        <v>1060200</v>
       </c>
       <c r="E41" s="3">
-        <v>439500</v>
+        <v>446800</v>
       </c>
       <c r="F41" s="3">
-        <v>238100</v>
+        <v>242100</v>
       </c>
       <c r="G41" s="3">
-        <v>35100</v>
+        <v>35700</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1509,13 +1509,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>15900</v>
+        <v>16100</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>54900</v>
+        <v>55800</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>127000</v>
+        <v>121300</v>
       </c>
       <c r="E43" s="3">
-        <v>102300</v>
+        <v>104000</v>
       </c>
       <c r="F43" s="3">
-        <v>123200</v>
+        <v>125200</v>
       </c>
       <c r="G43" s="3">
-        <v>270200</v>
+        <v>274800</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1563,16 +1563,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>230400</v>
+        <v>234200</v>
       </c>
       <c r="E44" s="3">
-        <v>214900</v>
+        <v>218500</v>
       </c>
       <c r="F44" s="3">
-        <v>201600</v>
+        <v>204900</v>
       </c>
       <c r="G44" s="3">
-        <v>167800</v>
+        <v>170600</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1590,13 +1590,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>600</v>
+        <v>8400</v>
       </c>
       <c r="E45" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="F45" s="3">
-        <v>77100</v>
+        <v>78300</v>
       </c>
       <c r="G45" s="3">
         <v>700</v>
@@ -1617,16 +1617,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1416500</v>
+        <v>1440200</v>
       </c>
       <c r="E46" s="3">
-        <v>767800</v>
+        <v>780700</v>
       </c>
       <c r="F46" s="3">
-        <v>694700</v>
+        <v>706400</v>
       </c>
       <c r="G46" s="3">
-        <v>473800</v>
+        <v>481800</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1644,7 +1644,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>54200</v>
+        <v>55100</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1671,16 +1671,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>118000</v>
+        <v>120000</v>
       </c>
       <c r="E48" s="3">
-        <v>91000</v>
+        <v>92500</v>
       </c>
       <c r="F48" s="3">
-        <v>88800</v>
+        <v>90300</v>
       </c>
       <c r="G48" s="3">
-        <v>79300</v>
+        <v>80700</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1698,16 +1698,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12400</v>
+        <v>12600</v>
       </c>
       <c r="E49" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="F49" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="G49" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1779,13 +1779,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>47300</v>
+        <v>48100</v>
       </c>
       <c r="E52" s="3">
-        <v>29200</v>
+        <v>29700</v>
       </c>
       <c r="F52" s="3">
-        <v>13500</v>
+        <v>13700</v>
       </c>
       <c r="G52" s="3">
         <v>3300</v>
@@ -1833,16 +1833,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1648400</v>
+        <v>1676000</v>
       </c>
       <c r="E54" s="3">
-        <v>898700</v>
+        <v>913700</v>
       </c>
       <c r="F54" s="3">
-        <v>804700</v>
+        <v>818200</v>
       </c>
       <c r="G54" s="3">
-        <v>561300</v>
+        <v>570700</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1886,16 +1886,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>432600</v>
+        <v>97800</v>
       </c>
       <c r="E57" s="3">
-        <v>74400</v>
+        <v>75700</v>
       </c>
       <c r="F57" s="3">
-        <v>91100</v>
+        <v>92600</v>
       </c>
       <c r="G57" s="3">
-        <v>361700</v>
+        <v>367800</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1913,16 +1913,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>51600</v>
+        <v>52400</v>
       </c>
       <c r="E58" s="3">
-        <v>96300</v>
+        <v>97900</v>
       </c>
       <c r="F58" s="3">
-        <v>29200</v>
+        <v>29700</v>
       </c>
       <c r="G58" s="3">
-        <v>21000</v>
+        <v>21300</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -1940,16 +1940,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>52200</v>
+        <v>395000</v>
       </c>
       <c r="E59" s="3">
-        <v>338900</v>
+        <v>344600</v>
       </c>
       <c r="F59" s="3">
-        <v>379600</v>
+        <v>385900</v>
       </c>
       <c r="G59" s="3">
-        <v>31800</v>
+        <v>32300</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -1967,16 +1967,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>536300</v>
+        <v>545300</v>
       </c>
       <c r="E60" s="3">
-        <v>509600</v>
+        <v>518200</v>
       </c>
       <c r="F60" s="3">
-        <v>499800</v>
+        <v>508200</v>
       </c>
       <c r="G60" s="3">
-        <v>414500</v>
+        <v>421400</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -1994,16 +1994,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>75500</v>
+        <v>76700</v>
       </c>
       <c r="E61" s="3">
-        <v>427400</v>
+        <v>434500</v>
       </c>
       <c r="F61" s="3">
-        <v>310500</v>
+        <v>315700</v>
       </c>
       <c r="G61" s="3">
-        <v>53200</v>
+        <v>54100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2021,16 +2021,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12300</v>
+        <v>12500</v>
       </c>
       <c r="E62" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="F62" s="3">
-        <v>12000</v>
+        <v>12200</v>
       </c>
       <c r="G62" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2129,16 +2129,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>623000</v>
+        <v>633500</v>
       </c>
       <c r="E66" s="3">
-        <v>950500</v>
+        <v>966400</v>
       </c>
       <c r="F66" s="3">
-        <v>823900</v>
+        <v>837700</v>
       </c>
       <c r="G66" s="3">
-        <v>474600</v>
+        <v>482600</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2277,16 +2277,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-251000</v>
+        <v>-255200</v>
       </c>
       <c r="E72" s="3">
-        <v>-76800</v>
+        <v>-78100</v>
       </c>
       <c r="F72" s="3">
-        <v>-40900</v>
+        <v>-41600</v>
       </c>
       <c r="G72" s="3">
-        <v>29700</v>
+        <v>30200</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2385,16 +2385,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1025300</v>
+        <v>1042500</v>
       </c>
       <c r="E76" s="3">
-        <v>-51800</v>
+        <v>-52700</v>
       </c>
       <c r="F76" s="3">
-        <v>-19200</v>
+        <v>-19500</v>
       </c>
       <c r="G76" s="3">
-        <v>86700</v>
+        <v>88200</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2471,13 +2471,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-217900</v>
+        <v>-221500</v>
       </c>
       <c r="E81" s="3">
-        <v>-40400</v>
+        <v>-41100</v>
       </c>
       <c r="F81" s="3">
-        <v>-44800</v>
+        <v>-45500</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
@@ -2511,25 +2511,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>41500</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3"/>
     </row>
@@ -2672,14 +2672,14 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>143500</v>
       </c>
       <c r="E89" s="3">
-        <v>127300</v>
+        <v>129400</v>
       </c>
       <c r="F89" s="3">
-        <v>159900</v>
+        <v>162600</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2712,14 +2712,14 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-28200</v>
       </c>
       <c r="E91" s="3">
-        <v>-8800</v>
+        <v>-8900</v>
       </c>
       <c r="F91" s="3">
-        <v>-17900</v>
+        <v>-18200</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2793,14 +2793,14 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-81200</v>
       </c>
       <c r="E94" s="3">
-        <v>71300</v>
+        <v>72500</v>
       </c>
       <c r="F94" s="3">
-        <v>-32500</v>
+        <v>-33000</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2941,14 +2941,14 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>553600</v>
       </c>
       <c r="E100" s="3">
-        <v>-18100</v>
+        <v>-18400</v>
       </c>
       <c r="F100" s="3">
-        <v>95400</v>
+        <v>97000</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2968,14 +2968,14 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>-2500</v>
       </c>
       <c r="E101" s="3">
         <v>-600</v>
       </c>
       <c r="F101" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -2995,14 +2995,14 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>613400</v>
       </c>
       <c r="E102" s="3">
-        <v>179800</v>
+        <v>182800</v>
       </c>
       <c r="F102" s="3">
-        <v>224500</v>
+        <v>228300</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/MNSO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MNSO_YR_FIN.xlsx
@@ -713,13 +713,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1420300</v>
+        <v>1431100</v>
       </c>
       <c r="E8" s="3">
-        <v>1405800</v>
+        <v>1416500</v>
       </c>
       <c r="F8" s="3">
-        <v>1470900</v>
+        <v>1482100</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1039700</v>
+        <v>1047700</v>
       </c>
       <c r="E9" s="3">
-        <v>978000</v>
+        <v>985400</v>
       </c>
       <c r="F9" s="3">
-        <v>1077700</v>
+        <v>1086000</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -767,13 +767,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>380500</v>
+        <v>383500</v>
       </c>
       <c r="E10" s="3">
-        <v>427800</v>
+        <v>431100</v>
       </c>
       <c r="F10" s="3">
-        <v>393100</v>
+        <v>396100</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -861,7 +861,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-6800</v>
+        <v>-6900</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -925,13 +925,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1357500</v>
+        <v>1367900</v>
       </c>
       <c r="E17" s="3">
-        <v>1285700</v>
+        <v>1295600</v>
       </c>
       <c r="F17" s="3">
-        <v>1311700</v>
+        <v>1321700</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -952,13 +952,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>62800</v>
+        <v>63300</v>
       </c>
       <c r="E18" s="3">
-        <v>120000</v>
+        <v>120900</v>
       </c>
       <c r="F18" s="3">
-        <v>159200</v>
+        <v>160400</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -992,13 +992,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-248800</v>
+        <v>-250700</v>
       </c>
       <c r="E20" s="3">
-        <v>-102500</v>
+        <v>-103200</v>
       </c>
       <c r="F20" s="3">
-        <v>-110000</v>
+        <v>-110800</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1019,7 +1019,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-144500</v>
+        <v>-145400</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1046,13 +1046,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="E22" s="3">
         <v>4900</v>
       </c>
       <c r="F22" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1073,13 +1073,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-190400</v>
+        <v>-191900</v>
       </c>
       <c r="E23" s="3">
         <v>12700</v>
       </c>
       <c r="F23" s="3">
-        <v>45200</v>
+        <v>45600</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -1100,13 +1100,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>33400</v>
+        <v>33600</v>
       </c>
       <c r="E24" s="3">
-        <v>33000</v>
+        <v>33300</v>
       </c>
       <c r="F24" s="3">
-        <v>43800</v>
+        <v>44100</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1154,10 +1154,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-223800</v>
+        <v>-225500</v>
       </c>
       <c r="E26" s="3">
-        <v>-20400</v>
+        <v>-20500</v>
       </c>
       <c r="F26" s="3">
         <v>1500</v>
@@ -1181,10 +1181,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-221500</v>
+        <v>-223200</v>
       </c>
       <c r="E27" s="3">
-        <v>-20700</v>
+        <v>-20900</v>
       </c>
       <c r="F27" s="3">
         <v>2100</v>
@@ -1238,10 +1238,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-20400</v>
+        <v>-20500</v>
       </c>
       <c r="F29" s="3">
-        <v>-47600</v>
+        <v>-47900</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
@@ -1316,13 +1316,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>248800</v>
+        <v>250700</v>
       </c>
       <c r="E32" s="3">
-        <v>102500</v>
+        <v>103200</v>
       </c>
       <c r="F32" s="3">
-        <v>110000</v>
+        <v>110800</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1343,13 +1343,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-221500</v>
+        <v>-223200</v>
       </c>
       <c r="E33" s="3">
-        <v>-41100</v>
+        <v>-41400</v>
       </c>
       <c r="F33" s="3">
-        <v>-45500</v>
+        <v>-45900</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -1397,13 +1397,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-221500</v>
+        <v>-223200</v>
       </c>
       <c r="E35" s="3">
-        <v>-41100</v>
+        <v>-41400</v>
       </c>
       <c r="F35" s="3">
-        <v>-45500</v>
+        <v>-45900</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1060200</v>
+        <v>1068300</v>
       </c>
       <c r="E41" s="3">
-        <v>446800</v>
+        <v>450200</v>
       </c>
       <c r="F41" s="3">
-        <v>242100</v>
+        <v>243900</v>
       </c>
       <c r="G41" s="3">
-        <v>35700</v>
+        <v>36000</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1509,13 +1509,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>16100</v>
+        <v>16200</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>55800</v>
+        <v>56200</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>121300</v>
+        <v>122200</v>
       </c>
       <c r="E43" s="3">
-        <v>104000</v>
+        <v>104800</v>
       </c>
       <c r="F43" s="3">
-        <v>125200</v>
+        <v>126200</v>
       </c>
       <c r="G43" s="3">
-        <v>274800</v>
+        <v>276900</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1563,16 +1563,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>234200</v>
+        <v>236000</v>
       </c>
       <c r="E44" s="3">
-        <v>218500</v>
+        <v>220200</v>
       </c>
       <c r="F44" s="3">
-        <v>204900</v>
+        <v>206500</v>
       </c>
       <c r="G44" s="3">
-        <v>170600</v>
+        <v>171900</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1590,13 +1590,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="E45" s="3">
         <v>11400</v>
       </c>
       <c r="F45" s="3">
-        <v>78300</v>
+        <v>78900</v>
       </c>
       <c r="G45" s="3">
         <v>700</v>
@@ -1617,16 +1617,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1440200</v>
+        <v>1451200</v>
       </c>
       <c r="E46" s="3">
-        <v>780700</v>
+        <v>786700</v>
       </c>
       <c r="F46" s="3">
-        <v>706400</v>
+        <v>711800</v>
       </c>
       <c r="G46" s="3">
-        <v>481800</v>
+        <v>485500</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1644,7 +1644,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>55100</v>
+        <v>55500</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1671,16 +1671,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>120000</v>
+        <v>120900</v>
       </c>
       <c r="E48" s="3">
-        <v>92500</v>
+        <v>93200</v>
       </c>
       <c r="F48" s="3">
-        <v>90300</v>
+        <v>91000</v>
       </c>
       <c r="G48" s="3">
-        <v>80700</v>
+        <v>81300</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1698,16 +1698,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12600</v>
+        <v>12700</v>
       </c>
       <c r="E49" s="3">
-        <v>10800</v>
+        <v>10900</v>
       </c>
       <c r="F49" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="G49" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1779,16 +1779,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>48100</v>
+        <v>48400</v>
       </c>
       <c r="E52" s="3">
-        <v>29700</v>
+        <v>29900</v>
       </c>
       <c r="F52" s="3">
-        <v>13700</v>
+        <v>13900</v>
       </c>
       <c r="G52" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1833,16 +1833,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1676000</v>
+        <v>1688800</v>
       </c>
       <c r="E54" s="3">
-        <v>913700</v>
+        <v>920700</v>
       </c>
       <c r="F54" s="3">
-        <v>818200</v>
+        <v>824500</v>
       </c>
       <c r="G54" s="3">
-        <v>570700</v>
+        <v>575100</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1886,16 +1886,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>97800</v>
+        <v>98600</v>
       </c>
       <c r="E57" s="3">
-        <v>75700</v>
+        <v>76200</v>
       </c>
       <c r="F57" s="3">
-        <v>92600</v>
+        <v>93300</v>
       </c>
       <c r="G57" s="3">
-        <v>367800</v>
+        <v>370600</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1913,16 +1913,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>52400</v>
+        <v>52800</v>
       </c>
       <c r="E58" s="3">
-        <v>97900</v>
+        <v>98600</v>
       </c>
       <c r="F58" s="3">
-        <v>29700</v>
+        <v>29900</v>
       </c>
       <c r="G58" s="3">
-        <v>21300</v>
+        <v>21500</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -1940,16 +1940,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>395000</v>
+        <v>398100</v>
       </c>
       <c r="E59" s="3">
-        <v>344600</v>
+        <v>347200</v>
       </c>
       <c r="F59" s="3">
-        <v>385900</v>
+        <v>388900</v>
       </c>
       <c r="G59" s="3">
-        <v>32300</v>
+        <v>32600</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -1967,16 +1967,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>545300</v>
+        <v>549500</v>
       </c>
       <c r="E60" s="3">
-        <v>518200</v>
+        <v>522100</v>
       </c>
       <c r="F60" s="3">
-        <v>508200</v>
+        <v>512100</v>
       </c>
       <c r="G60" s="3">
-        <v>421400</v>
+        <v>424700</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -1994,16 +1994,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>76700</v>
+        <v>77300</v>
       </c>
       <c r="E61" s="3">
-        <v>434500</v>
+        <v>437900</v>
       </c>
       <c r="F61" s="3">
-        <v>315700</v>
+        <v>318100</v>
       </c>
       <c r="G61" s="3">
-        <v>54100</v>
+        <v>54500</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2021,13 +2021,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="E62" s="3">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="F62" s="3">
-        <v>12200</v>
+        <v>12300</v>
       </c>
       <c r="G62" s="3">
         <v>6800</v>
@@ -2129,16 +2129,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>633500</v>
+        <v>638300</v>
       </c>
       <c r="E66" s="3">
-        <v>966400</v>
+        <v>973800</v>
       </c>
       <c r="F66" s="3">
-        <v>837700</v>
+        <v>844200</v>
       </c>
       <c r="G66" s="3">
-        <v>482600</v>
+        <v>486300</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2277,16 +2277,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-255200</v>
+        <v>-257200</v>
       </c>
       <c r="E72" s="3">
-        <v>-78100</v>
+        <v>-78700</v>
       </c>
       <c r="F72" s="3">
-        <v>-41600</v>
+        <v>-41900</v>
       </c>
       <c r="G72" s="3">
-        <v>30200</v>
+        <v>30400</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2385,16 +2385,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1042500</v>
+        <v>1050500</v>
       </c>
       <c r="E76" s="3">
-        <v>-52700</v>
+        <v>-53100</v>
       </c>
       <c r="F76" s="3">
-        <v>-19500</v>
+        <v>-19700</v>
       </c>
       <c r="G76" s="3">
-        <v>88200</v>
+        <v>88800</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2471,13 +2471,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-221500</v>
+        <v>-223200</v>
       </c>
       <c r="E81" s="3">
-        <v>-41100</v>
+        <v>-41400</v>
       </c>
       <c r="F81" s="3">
-        <v>-45500</v>
+        <v>-45900</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
@@ -2511,7 +2511,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>41500</v>
+        <v>41800</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>3</v>
@@ -2673,13 +2673,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>143500</v>
+        <v>144600</v>
       </c>
       <c r="E89" s="3">
-        <v>129400</v>
+        <v>130400</v>
       </c>
       <c r="F89" s="3">
-        <v>162600</v>
+        <v>163800</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2713,13 +2713,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-28200</v>
+        <v>-28400</v>
       </c>
       <c r="E91" s="3">
-        <v>-8900</v>
+        <v>-9000</v>
       </c>
       <c r="F91" s="3">
-        <v>-18200</v>
+        <v>-18300</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2794,13 +2794,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-81200</v>
+        <v>-81800</v>
       </c>
       <c r="E94" s="3">
-        <v>72500</v>
+        <v>73000</v>
       </c>
       <c r="F94" s="3">
-        <v>-33000</v>
+        <v>-33300</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2942,13 +2942,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>553600</v>
+        <v>557900</v>
       </c>
       <c r="E100" s="3">
-        <v>-18400</v>
+        <v>-18600</v>
       </c>
       <c r="F100" s="3">
-        <v>97000</v>
+        <v>97800</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2996,13 +2996,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>613400</v>
+        <v>618100</v>
       </c>
       <c r="E102" s="3">
-        <v>182800</v>
+        <v>184200</v>
       </c>
       <c r="F102" s="3">
-        <v>228300</v>
+        <v>230000</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/MNSO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MNSO_YR_FIN.xlsx
@@ -713,13 +713,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1431100</v>
+        <v>1336800</v>
       </c>
       <c r="E8" s="3">
-        <v>1416500</v>
+        <v>1323100</v>
       </c>
       <c r="F8" s="3">
-        <v>1482100</v>
+        <v>1384400</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1047700</v>
+        <v>978600</v>
       </c>
       <c r="E9" s="3">
-        <v>985400</v>
+        <v>920500</v>
       </c>
       <c r="F9" s="3">
-        <v>1086000</v>
+        <v>1014400</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -767,13 +767,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>383500</v>
+        <v>358200</v>
       </c>
       <c r="E10" s="3">
-        <v>431100</v>
+        <v>402700</v>
       </c>
       <c r="F10" s="3">
-        <v>396100</v>
+        <v>370000</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -861,13 +861,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-6900</v>
+        <v>-6400</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -925,13 +925,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1367900</v>
+        <v>1277700</v>
       </c>
       <c r="E17" s="3">
-        <v>1295600</v>
+        <v>1210200</v>
       </c>
       <c r="F17" s="3">
-        <v>1321700</v>
+        <v>1234600</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -952,13 +952,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>63300</v>
+        <v>59100</v>
       </c>
       <c r="E18" s="3">
-        <v>120900</v>
+        <v>113000</v>
       </c>
       <c r="F18" s="3">
-        <v>160400</v>
+        <v>149800</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -992,13 +992,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-250700</v>
+        <v>-234100</v>
       </c>
       <c r="E20" s="3">
-        <v>-103200</v>
+        <v>-96400</v>
       </c>
       <c r="F20" s="3">
-        <v>-110800</v>
+        <v>-103500</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1019,7 +1019,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-145400</v>
+        <v>-135600</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1046,13 +1046,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="E22" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="F22" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1073,13 +1073,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-191900</v>
+        <v>-179200</v>
       </c>
       <c r="E23" s="3">
-        <v>12700</v>
+        <v>11900</v>
       </c>
       <c r="F23" s="3">
-        <v>45600</v>
+        <v>42600</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -1100,13 +1100,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>33600</v>
+        <v>31400</v>
       </c>
       <c r="E24" s="3">
-        <v>33300</v>
+        <v>31100</v>
       </c>
       <c r="F24" s="3">
-        <v>44100</v>
+        <v>41200</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1154,13 +1154,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-225500</v>
+        <v>-210600</v>
       </c>
       <c r="E26" s="3">
-        <v>-20500</v>
+        <v>-19200</v>
       </c>
       <c r="F26" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-223200</v>
+        <v>-208500</v>
       </c>
       <c r="E27" s="3">
-        <v>-20900</v>
+        <v>-19500</v>
       </c>
       <c r="F27" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -1238,10 +1238,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-20500</v>
+        <v>-19200</v>
       </c>
       <c r="F29" s="3">
-        <v>-47900</v>
+        <v>-44800</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
@@ -1316,13 +1316,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>250700</v>
+        <v>234100</v>
       </c>
       <c r="E32" s="3">
-        <v>103200</v>
+        <v>96400</v>
       </c>
       <c r="F32" s="3">
-        <v>110800</v>
+        <v>103500</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1343,13 +1343,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-223200</v>
+        <v>-208500</v>
       </c>
       <c r="E33" s="3">
-        <v>-41400</v>
+        <v>-38600</v>
       </c>
       <c r="F33" s="3">
-        <v>-45900</v>
+        <v>-42800</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -1397,13 +1397,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-223200</v>
+        <v>-208500</v>
       </c>
       <c r="E35" s="3">
-        <v>-41400</v>
+        <v>-38600</v>
       </c>
       <c r="F35" s="3">
-        <v>-45900</v>
+        <v>-42800</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1068300</v>
+        <v>997900</v>
       </c>
       <c r="E41" s="3">
-        <v>450200</v>
+        <v>420600</v>
       </c>
       <c r="F41" s="3">
-        <v>243900</v>
+        <v>227900</v>
       </c>
       <c r="G41" s="3">
-        <v>36000</v>
+        <v>33600</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1509,13 +1509,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>16200</v>
+        <v>15200</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>56200</v>
+        <v>52500</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>122200</v>
+        <v>114100</v>
       </c>
       <c r="E43" s="3">
-        <v>104800</v>
+        <v>97900</v>
       </c>
       <c r="F43" s="3">
-        <v>126200</v>
+        <v>117900</v>
       </c>
       <c r="G43" s="3">
-        <v>276900</v>
+        <v>258600</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1563,16 +1563,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>236000</v>
+        <v>220500</v>
       </c>
       <c r="E44" s="3">
-        <v>220200</v>
+        <v>205700</v>
       </c>
       <c r="F44" s="3">
-        <v>206500</v>
+        <v>192900</v>
       </c>
       <c r="G44" s="3">
-        <v>171900</v>
+        <v>160500</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1590,13 +1590,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8500</v>
+        <v>7900</v>
       </c>
       <c r="E45" s="3">
-        <v>11400</v>
+        <v>10700</v>
       </c>
       <c r="F45" s="3">
-        <v>78900</v>
+        <v>73700</v>
       </c>
       <c r="G45" s="3">
         <v>700</v>
@@ -1617,16 +1617,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1451200</v>
+        <v>1355600</v>
       </c>
       <c r="E46" s="3">
-        <v>786700</v>
+        <v>734800</v>
       </c>
       <c r="F46" s="3">
-        <v>711800</v>
+        <v>664800</v>
       </c>
       <c r="G46" s="3">
-        <v>485500</v>
+        <v>453500</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1644,7 +1644,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>55500</v>
+        <v>51900</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1671,16 +1671,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>120900</v>
+        <v>112900</v>
       </c>
       <c r="E48" s="3">
-        <v>93200</v>
+        <v>87100</v>
       </c>
       <c r="F48" s="3">
-        <v>91000</v>
+        <v>85000</v>
       </c>
       <c r="G48" s="3">
-        <v>81300</v>
+        <v>75900</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1698,16 +1698,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12700</v>
+        <v>11900</v>
       </c>
       <c r="E49" s="3">
-        <v>10900</v>
+        <v>10200</v>
       </c>
       <c r="F49" s="3">
-        <v>7900</v>
+        <v>7300</v>
       </c>
       <c r="G49" s="3">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1779,16 +1779,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>48400</v>
+        <v>45200</v>
       </c>
       <c r="E52" s="3">
-        <v>29900</v>
+        <v>27900</v>
       </c>
       <c r="F52" s="3">
-        <v>13900</v>
+        <v>12900</v>
       </c>
       <c r="G52" s="3">
-        <v>3400</v>
+        <v>3100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1833,16 +1833,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1688800</v>
+        <v>1577500</v>
       </c>
       <c r="E54" s="3">
-        <v>920700</v>
+        <v>860000</v>
       </c>
       <c r="F54" s="3">
-        <v>824500</v>
+        <v>770100</v>
       </c>
       <c r="G54" s="3">
-        <v>575100</v>
+        <v>537200</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1886,16 +1886,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>98600</v>
+        <v>92100</v>
       </c>
       <c r="E57" s="3">
-        <v>76200</v>
+        <v>71200</v>
       </c>
       <c r="F57" s="3">
-        <v>93300</v>
+        <v>87100</v>
       </c>
       <c r="G57" s="3">
-        <v>370600</v>
+        <v>346200</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1913,16 +1913,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>52800</v>
+        <v>49400</v>
       </c>
       <c r="E58" s="3">
-        <v>98600</v>
+        <v>92100</v>
       </c>
       <c r="F58" s="3">
-        <v>29900</v>
+        <v>27900</v>
       </c>
       <c r="G58" s="3">
-        <v>21500</v>
+        <v>20100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -1940,16 +1940,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>398100</v>
+        <v>371800</v>
       </c>
       <c r="E59" s="3">
-        <v>347200</v>
+        <v>324400</v>
       </c>
       <c r="F59" s="3">
-        <v>388900</v>
+        <v>363300</v>
       </c>
       <c r="G59" s="3">
-        <v>32600</v>
+        <v>30400</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -1967,16 +1967,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>549500</v>
+        <v>513200</v>
       </c>
       <c r="E60" s="3">
-        <v>522100</v>
+        <v>487700</v>
       </c>
       <c r="F60" s="3">
-        <v>512100</v>
+        <v>478300</v>
       </c>
       <c r="G60" s="3">
-        <v>424700</v>
+        <v>396700</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -1994,16 +1994,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>77300</v>
+        <v>72200</v>
       </c>
       <c r="E61" s="3">
-        <v>437900</v>
+        <v>409000</v>
       </c>
       <c r="F61" s="3">
-        <v>318100</v>
+        <v>297100</v>
       </c>
       <c r="G61" s="3">
-        <v>54500</v>
+        <v>50900</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2021,16 +2021,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12600</v>
+        <v>11800</v>
       </c>
       <c r="E62" s="3">
-        <v>11700</v>
+        <v>10900</v>
       </c>
       <c r="F62" s="3">
-        <v>12300</v>
+        <v>11400</v>
       </c>
       <c r="G62" s="3">
-        <v>6800</v>
+        <v>6400</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2129,16 +2129,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>638300</v>
+        <v>596200</v>
       </c>
       <c r="E66" s="3">
-        <v>973800</v>
+        <v>909600</v>
       </c>
       <c r="F66" s="3">
-        <v>844200</v>
+        <v>788500</v>
       </c>
       <c r="G66" s="3">
-        <v>486300</v>
+        <v>454200</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2277,16 +2277,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-257200</v>
+        <v>-240200</v>
       </c>
       <c r="E72" s="3">
-        <v>-78700</v>
+        <v>-73500</v>
       </c>
       <c r="F72" s="3">
-        <v>-41900</v>
+        <v>-39200</v>
       </c>
       <c r="G72" s="3">
-        <v>30400</v>
+        <v>28400</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2385,16 +2385,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1050500</v>
+        <v>981300</v>
       </c>
       <c r="E76" s="3">
-        <v>-53100</v>
+        <v>-49600</v>
       </c>
       <c r="F76" s="3">
-        <v>-19700</v>
+        <v>-18400</v>
       </c>
       <c r="G76" s="3">
-        <v>88800</v>
+        <v>83000</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2471,13 +2471,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-223200</v>
+        <v>-208500</v>
       </c>
       <c r="E81" s="3">
-        <v>-41400</v>
+        <v>-38600</v>
       </c>
       <c r="F81" s="3">
-        <v>-45900</v>
+        <v>-42800</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
@@ -2511,7 +2511,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>41800</v>
+        <v>39100</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>3</v>
@@ -2673,13 +2673,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>144600</v>
+        <v>135000</v>
       </c>
       <c r="E89" s="3">
-        <v>130400</v>
+        <v>121800</v>
       </c>
       <c r="F89" s="3">
-        <v>163800</v>
+        <v>153000</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2713,13 +2713,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-28400</v>
+        <v>-26600</v>
       </c>
       <c r="E91" s="3">
-        <v>-9000</v>
+        <v>-8400</v>
       </c>
       <c r="F91" s="3">
-        <v>-18300</v>
+        <v>-17100</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2794,13 +2794,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-81800</v>
+        <v>-76400</v>
       </c>
       <c r="E94" s="3">
-        <v>73000</v>
+        <v>68200</v>
       </c>
       <c r="F94" s="3">
-        <v>-33300</v>
+        <v>-31100</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2942,13 +2942,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>557900</v>
+        <v>521100</v>
       </c>
       <c r="E100" s="3">
-        <v>-18600</v>
+        <v>-17300</v>
       </c>
       <c r="F100" s="3">
-        <v>97800</v>
+        <v>91300</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2969,13 +2969,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="E101" s="3">
         <v>-600</v>
       </c>
       <c r="F101" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -2996,13 +2996,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>618100</v>
+        <v>577300</v>
       </c>
       <c r="E102" s="3">
-        <v>184200</v>
+        <v>172100</v>
       </c>
       <c r="F102" s="3">
-        <v>230000</v>
+        <v>214900</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/MNSO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MNSO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
   <si>
     <t>MNSO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,70 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43282</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1336800</v>
+        <v>1472800</v>
       </c>
       <c r="E8" s="3">
-        <v>1323100</v>
+        <v>1324700</v>
       </c>
       <c r="F8" s="3">
-        <v>1384400</v>
+        <v>1311200</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>1371900</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -733,23 +736,26 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>978600</v>
+        <v>1024500</v>
       </c>
       <c r="E9" s="3">
-        <v>920500</v>
+        <v>969800</v>
       </c>
       <c r="F9" s="3">
-        <v>1014400</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>912200</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1005300</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -760,23 +766,26 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>358200</v>
+        <v>448300</v>
       </c>
       <c r="E10" s="3">
-        <v>402700</v>
+        <v>355000</v>
       </c>
       <c r="F10" s="3">
-        <v>370000</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+        <v>399000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>366700</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -787,9 +796,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -801,8 +813,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -827,9 +840,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,24 +870,27 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-6400</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>2700</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -881,9 +900,12 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -908,9 +930,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -919,22 +944,23 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1277700</v>
+        <v>1344000</v>
       </c>
       <c r="E17" s="3">
-        <v>1210200</v>
+        <v>1266200</v>
       </c>
       <c r="F17" s="3">
-        <v>1234600</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>1199300</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1223500</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -945,23 +971,26 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>59100</v>
+        <v>128800</v>
       </c>
       <c r="E18" s="3">
-        <v>113000</v>
+        <v>58600</v>
       </c>
       <c r="F18" s="3">
-        <v>149800</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>111900</v>
+      </c>
+      <c r="G18" s="3">
+        <v>148500</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -972,9 +1001,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -986,22 +1018,23 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-234100</v>
+        <v>3600</v>
       </c>
       <c r="E20" s="3">
-        <v>-96400</v>
+        <v>-232000</v>
       </c>
       <c r="F20" s="3">
-        <v>-103500</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+        <v>-95600</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-102600</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1012,14 +1045,17 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-135600</v>
+        <v>171100</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1039,24 +1075,27 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>4200</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F22" s="3">
         <v>4600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3700</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1066,26 +1105,29 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-179200</v>
+        <v>132400</v>
       </c>
       <c r="E23" s="3">
-        <v>11900</v>
+        <v>-177600</v>
       </c>
       <c r="F23" s="3">
-        <v>42600</v>
+        <v>11800</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>42200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1093,23 +1135,26 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>31400</v>
+        <v>39000</v>
       </c>
       <c r="E24" s="3">
         <v>31100</v>
       </c>
       <c r="F24" s="3">
-        <v>41200</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+        <v>30800</v>
+      </c>
+      <c r="G24" s="3">
+        <v>40800</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1120,9 +1165,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,26 +1195,29 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-210600</v>
+        <v>93400</v>
       </c>
       <c r="E26" s="3">
-        <v>-19200</v>
+        <v>-208700</v>
       </c>
       <c r="F26" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="G26" s="3">
         <v>1400</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+      <c r="H26" s="3">
+        <v>0</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1174,26 +1225,29 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-208500</v>
+        <v>93200</v>
       </c>
       <c r="E27" s="3">
-        <v>-19500</v>
+        <v>-206600</v>
       </c>
       <c r="F27" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="G27" s="3">
         <v>1900</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+      <c r="H27" s="3">
+        <v>0</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1201,9 +1255,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,23 +1285,26 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E29" s="3">
-        <v>-19200</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-44800</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
+        <v>-19000</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-44400</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -1255,9 +1315,12 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,9 +1345,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,23 +1375,26 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>234100</v>
+        <v>-3600</v>
       </c>
       <c r="E32" s="3">
-        <v>96400</v>
+        <v>232000</v>
       </c>
       <c r="F32" s="3">
-        <v>103500</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+        <v>95600</v>
+      </c>
+      <c r="G32" s="3">
+        <v>102600</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1336,26 +1405,29 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-208500</v>
+        <v>93200</v>
       </c>
       <c r="E33" s="3">
-        <v>-38600</v>
+        <v>-206600</v>
       </c>
       <c r="F33" s="3">
-        <v>-42800</v>
+        <v>-38300</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>-42400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1363,9 +1435,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,26 +1465,29 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-208500</v>
+        <v>93200</v>
       </c>
       <c r="E35" s="3">
-        <v>-38600</v>
+        <v>-206600</v>
       </c>
       <c r="F35" s="3">
-        <v>-42800</v>
+        <v>-38300</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>-42400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1417,41 +1495,47 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43282</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1463,8 +1547,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1476,25 +1561,26 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>997900</v>
+        <v>781000</v>
       </c>
       <c r="E41" s="3">
-        <v>420600</v>
+        <v>988900</v>
       </c>
       <c r="F41" s="3">
-        <v>227900</v>
+        <v>416800</v>
       </c>
       <c r="G41" s="3">
-        <v>33600</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>225800</v>
+      </c>
+      <c r="H41" s="3">
+        <v>33300</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1502,26 +1588,29 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>15200</v>
+        <v>65300</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F42" s="3">
-        <v>52500</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+        <v>52000</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1529,26 +1618,29 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>114100</v>
+        <v>154200</v>
       </c>
       <c r="E43" s="3">
-        <v>97900</v>
+        <v>113100</v>
       </c>
       <c r="F43" s="3">
-        <v>117900</v>
+        <v>97000</v>
       </c>
       <c r="G43" s="3">
-        <v>258600</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>116800</v>
+      </c>
+      <c r="H43" s="3">
+        <v>256300</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1556,26 +1648,29 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>220500</v>
+        <v>173500</v>
       </c>
       <c r="E44" s="3">
-        <v>205700</v>
+        <v>218500</v>
       </c>
       <c r="F44" s="3">
-        <v>192900</v>
+        <v>203800</v>
       </c>
       <c r="G44" s="3">
-        <v>160500</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+        <v>191100</v>
+      </c>
+      <c r="H44" s="3">
+        <v>159100</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1583,53 +1678,59 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E45" s="3">
         <v>7900</v>
       </c>
-      <c r="E45" s="3">
-        <v>10700</v>
-      </c>
       <c r="F45" s="3">
-        <v>73700</v>
+        <v>10600</v>
       </c>
       <c r="G45" s="3">
+        <v>73100</v>
+      </c>
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1355600</v>
+        <v>1178800</v>
       </c>
       <c r="E46" s="3">
-        <v>734800</v>
+        <v>1343300</v>
       </c>
       <c r="F46" s="3">
-        <v>664800</v>
+        <v>728200</v>
       </c>
       <c r="G46" s="3">
-        <v>453500</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>658800</v>
+      </c>
+      <c r="H46" s="3">
+        <v>449400</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1637,17 +1738,20 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>51900</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
+        <v>4100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>51400</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1664,26 +1768,29 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>112900</v>
+        <v>403400</v>
       </c>
       <c r="E48" s="3">
-        <v>87100</v>
+        <v>111900</v>
       </c>
       <c r="F48" s="3">
-        <v>85000</v>
+        <v>86300</v>
       </c>
       <c r="G48" s="3">
-        <v>75900</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>84200</v>
+      </c>
+      <c r="H48" s="3">
+        <v>75200</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1691,36 +1798,42 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11900</v>
+        <v>9100</v>
       </c>
       <c r="E49" s="3">
-        <v>10200</v>
+        <v>11800</v>
       </c>
       <c r="F49" s="3">
+        <v>10100</v>
+      </c>
+      <c r="G49" s="3">
         <v>7300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4600</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,9 +1858,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,36 +1888,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>45200</v>
+        <v>52000</v>
       </c>
       <c r="E52" s="3">
-        <v>27900</v>
+        <v>44800</v>
       </c>
       <c r="F52" s="3">
-        <v>12900</v>
+        <v>27700</v>
       </c>
       <c r="G52" s="3">
+        <v>12800</v>
+      </c>
+      <c r="H52" s="3">
         <v>3100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,26 +1948,29 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1577500</v>
+        <v>1647500</v>
       </c>
       <c r="E54" s="3">
-        <v>860000</v>
+        <v>1563300</v>
       </c>
       <c r="F54" s="3">
-        <v>770100</v>
+        <v>852300</v>
       </c>
       <c r="G54" s="3">
-        <v>537200</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>763200</v>
+      </c>
+      <c r="H54" s="3">
+        <v>532300</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1853,9 +1978,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1867,8 +1995,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1880,25 +2009,26 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>92100</v>
+        <v>448700</v>
       </c>
       <c r="E57" s="3">
-        <v>71200</v>
+        <v>91200</v>
       </c>
       <c r="F57" s="3">
-        <v>87100</v>
+        <v>70600</v>
       </c>
       <c r="G57" s="3">
-        <v>346200</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>86400</v>
+      </c>
+      <c r="H57" s="3">
+        <v>343000</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -1906,26 +2036,29 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>49400</v>
+        <v>37700</v>
       </c>
       <c r="E58" s="3">
-        <v>92100</v>
+        <v>48900</v>
       </c>
       <c r="F58" s="3">
-        <v>27900</v>
+        <v>91300</v>
       </c>
       <c r="G58" s="3">
-        <v>20100</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>27700</v>
+      </c>
+      <c r="H58" s="3">
+        <v>19900</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -1933,26 +2066,29 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>371800</v>
+        <v>66800</v>
       </c>
       <c r="E59" s="3">
-        <v>324400</v>
+        <v>368500</v>
       </c>
       <c r="F59" s="3">
-        <v>363300</v>
+        <v>321400</v>
       </c>
       <c r="G59" s="3">
-        <v>30400</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>360000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>30100</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -1960,26 +2096,29 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>513200</v>
+        <v>553300</v>
       </c>
       <c r="E60" s="3">
-        <v>487700</v>
+        <v>508600</v>
       </c>
       <c r="F60" s="3">
-        <v>478300</v>
+        <v>483300</v>
       </c>
       <c r="G60" s="3">
-        <v>396700</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>474000</v>
+      </c>
+      <c r="H60" s="3">
+        <v>393100</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -1987,26 +2126,29 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>72200</v>
+        <v>58300</v>
       </c>
       <c r="E61" s="3">
-        <v>409000</v>
+        <v>71600</v>
       </c>
       <c r="F61" s="3">
-        <v>297100</v>
+        <v>405300</v>
       </c>
       <c r="G61" s="3">
-        <v>50900</v>
+        <v>294500</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>50500</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2014,26 +2156,29 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11800</v>
+        <v>9700</v>
       </c>
       <c r="E62" s="3">
-        <v>10900</v>
+        <v>11700</v>
       </c>
       <c r="F62" s="3">
-        <v>11400</v>
+        <v>10800</v>
       </c>
       <c r="G62" s="3">
-        <v>6400</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>11300</v>
+      </c>
+      <c r="H62" s="3">
+        <v>6300</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2041,9 +2186,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,9 +2216,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,9 +2246,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,26 +2276,29 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>596200</v>
+        <v>620600</v>
       </c>
       <c r="E66" s="3">
-        <v>909600</v>
+        <v>590800</v>
       </c>
       <c r="F66" s="3">
-        <v>788500</v>
+        <v>901400</v>
       </c>
       <c r="G66" s="3">
-        <v>454200</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>781400</v>
+      </c>
+      <c r="H66" s="3">
+        <v>450100</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2149,9 +2306,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2163,8 +2323,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,9 +2350,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,9 +2380,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,9 +2410,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,26 +2440,29 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-240200</v>
+        <v>-138900</v>
       </c>
       <c r="E72" s="3">
-        <v>-73500</v>
+        <v>-238100</v>
       </c>
       <c r="F72" s="3">
-        <v>-39200</v>
+        <v>-72900</v>
       </c>
       <c r="G72" s="3">
-        <v>28400</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-38800</v>
+      </c>
+      <c r="H72" s="3">
+        <v>28200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2297,9 +2470,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,9 +2500,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,9 +2530,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,26 +2560,29 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>981300</v>
+        <v>1026800</v>
       </c>
       <c r="E76" s="3">
-        <v>-49600</v>
+        <v>972400</v>
       </c>
       <c r="F76" s="3">
-        <v>-18400</v>
+        <v>-49200</v>
       </c>
       <c r="G76" s="3">
-        <v>83000</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>-18200</v>
+      </c>
+      <c r="H76" s="3">
+        <v>82200</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2405,9 +2590,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,58 +2620,64 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43282</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-208500</v>
+        <v>93200</v>
       </c>
       <c r="E81" s="3">
-        <v>-38600</v>
+        <v>-206600</v>
       </c>
       <c r="F81" s="3">
-        <v>-42800</v>
+        <v>-38300</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>-42400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2491,9 +2685,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2505,16 +2702,17 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>39100</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3">
+        <v>38700</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
@@ -2531,9 +2729,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,9 +2759,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,9 +2789,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,9 +2819,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,9 +2849,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,23 +2879,26 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>135000</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>121800</v>
+        <v>133800</v>
       </c>
       <c r="F89" s="3">
-        <v>153000</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>120700</v>
+      </c>
+      <c r="G89" s="3">
+        <v>151600</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2693,9 +2909,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2707,22 +2926,23 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-26600</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>-8400</v>
+        <v>-26300</v>
       </c>
       <c r="F91" s="3">
-        <v>-17100</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+        <v>-8300</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-17000</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2733,9 +2953,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,9 +2983,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,23 +3013,26 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-76400</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>68200</v>
+        <v>-75800</v>
       </c>
       <c r="F94" s="3">
-        <v>-31100</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>67600</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-30800</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2814,9 +3043,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2828,8 +3060,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2854,9 +3087,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,9 +3117,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,9 +3147,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,23 +3177,26 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>521100</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>-17300</v>
+        <v>516400</v>
       </c>
       <c r="F100" s="3">
-        <v>91300</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>-17200</v>
+      </c>
+      <c r="G100" s="3">
+        <v>90500</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -2962,24 +3207,27 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-2400</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1600</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -2989,23 +3237,26 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>577300</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>172100</v>
+        <v>572100</v>
       </c>
       <c r="F102" s="3">
-        <v>214900</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>170500</v>
+      </c>
+      <c r="G102" s="3">
+        <v>212900</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3016,7 +3267,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MNSO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MNSO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
   <si>
     <t>MNSO</t>
   </si>
@@ -716,16 +716,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1472800</v>
+        <v>1403900</v>
       </c>
       <c r="E8" s="3">
-        <v>1324700</v>
+        <v>1262800</v>
       </c>
       <c r="F8" s="3">
-        <v>1311200</v>
+        <v>1249900</v>
       </c>
       <c r="G8" s="3">
-        <v>1371900</v>
+        <v>1307800</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -746,16 +746,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1024500</v>
+        <v>976600</v>
       </c>
       <c r="E9" s="3">
-        <v>969800</v>
+        <v>924400</v>
       </c>
       <c r="F9" s="3">
-        <v>912200</v>
+        <v>869500</v>
       </c>
       <c r="G9" s="3">
-        <v>1005300</v>
+        <v>958200</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -776,16 +776,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>448300</v>
+        <v>427300</v>
       </c>
       <c r="E10" s="3">
-        <v>355000</v>
+        <v>338400</v>
       </c>
       <c r="F10" s="3">
-        <v>399000</v>
+        <v>380400</v>
       </c>
       <c r="G10" s="3">
-        <v>366700</v>
+        <v>349500</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -880,16 +880,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2000</v>
+        <v>-100</v>
       </c>
       <c r="E14" s="3">
-        <v>-6400</v>
+        <v>-6100</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -951,16 +951,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1344000</v>
+        <v>1281100</v>
       </c>
       <c r="E17" s="3">
-        <v>1266200</v>
+        <v>1207000</v>
       </c>
       <c r="F17" s="3">
-        <v>1199300</v>
+        <v>1143200</v>
       </c>
       <c r="G17" s="3">
-        <v>1223500</v>
+        <v>1166200</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -981,16 +981,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>128800</v>
+        <v>122800</v>
       </c>
       <c r="E18" s="3">
-        <v>58600</v>
+        <v>55800</v>
       </c>
       <c r="F18" s="3">
-        <v>111900</v>
+        <v>106700</v>
       </c>
       <c r="G18" s="3">
-        <v>148500</v>
+        <v>141500</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1025,16 +1025,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3600</v>
+        <v>8100</v>
       </c>
       <c r="E20" s="3">
-        <v>-232000</v>
+        <v>-221200</v>
       </c>
       <c r="F20" s="3">
-        <v>-95600</v>
+        <v>-91100</v>
       </c>
       <c r="G20" s="3">
-        <v>-102600</v>
+        <v>-97800</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1055,10 +1055,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>171100</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+        <v>184700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-128700</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1084,17 +1084,17 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>4600</v>
       </c>
       <c r="E22" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="F22" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="G22" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1115,16 +1115,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>132400</v>
+        <v>126200</v>
       </c>
       <c r="E23" s="3">
-        <v>-177600</v>
+        <v>-169300</v>
       </c>
       <c r="F23" s="3">
-        <v>11800</v>
+        <v>11200</v>
       </c>
       <c r="G23" s="3">
-        <v>42200</v>
+        <v>40200</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1145,16 +1145,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>39000</v>
+        <v>37200</v>
       </c>
       <c r="E24" s="3">
-        <v>31100</v>
+        <v>29700</v>
       </c>
       <c r="F24" s="3">
-        <v>30800</v>
+        <v>29400</v>
       </c>
       <c r="G24" s="3">
-        <v>40800</v>
+        <v>38900</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1205,16 +1205,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>93400</v>
+        <v>89100</v>
       </c>
       <c r="E26" s="3">
-        <v>-208700</v>
+        <v>-199000</v>
       </c>
       <c r="F26" s="3">
-        <v>-19000</v>
+        <v>-18100</v>
       </c>
       <c r="G26" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -1235,16 +1235,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>93200</v>
+        <v>88800</v>
       </c>
       <c r="E27" s="3">
-        <v>-206600</v>
+        <v>-197000</v>
       </c>
       <c r="F27" s="3">
-        <v>-19300</v>
+        <v>-18400</v>
       </c>
       <c r="G27" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -1294,17 +1294,17 @@
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-19000</v>
+        <v>-18100</v>
       </c>
       <c r="G29" s="3">
-        <v>-44400</v>
+        <v>-42300</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -1385,16 +1385,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3600</v>
+        <v>-8100</v>
       </c>
       <c r="E32" s="3">
-        <v>232000</v>
+        <v>221200</v>
       </c>
       <c r="F32" s="3">
-        <v>95600</v>
+        <v>91100</v>
       </c>
       <c r="G32" s="3">
-        <v>102600</v>
+        <v>97800</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1415,16 +1415,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>93200</v>
+        <v>88800</v>
       </c>
       <c r="E33" s="3">
-        <v>-206600</v>
+        <v>-197000</v>
       </c>
       <c r="F33" s="3">
-        <v>-38300</v>
+        <v>-36500</v>
       </c>
       <c r="G33" s="3">
-        <v>-42400</v>
+        <v>-40500</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -1475,16 +1475,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>93200</v>
+        <v>88800</v>
       </c>
       <c r="E35" s="3">
-        <v>-206600</v>
+        <v>-197000</v>
       </c>
       <c r="F35" s="3">
-        <v>-38300</v>
+        <v>-36500</v>
       </c>
       <c r="G35" s="3">
-        <v>-42400</v>
+        <v>-40500</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -1568,19 +1568,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>781000</v>
+        <v>744500</v>
       </c>
       <c r="E41" s="3">
-        <v>988900</v>
+        <v>942600</v>
       </c>
       <c r="F41" s="3">
-        <v>416800</v>
+        <v>397300</v>
       </c>
       <c r="G41" s="3">
-        <v>225800</v>
+        <v>215200</v>
       </c>
       <c r="H41" s="3">
-        <v>33300</v>
+        <v>31800</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1598,16 +1598,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>65300</v>
+        <v>62300</v>
       </c>
       <c r="E42" s="3">
-        <v>15000</v>
+        <v>14300</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>52000</v>
+        <v>49600</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>154200</v>
+        <v>126700</v>
       </c>
       <c r="E43" s="3">
-        <v>113100</v>
+        <v>107800</v>
       </c>
       <c r="F43" s="3">
-        <v>97000</v>
+        <v>92500</v>
       </c>
       <c r="G43" s="3">
-        <v>116800</v>
+        <v>111300</v>
       </c>
       <c r="H43" s="3">
-        <v>256300</v>
+        <v>244300</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1658,19 +1658,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>173500</v>
+        <v>165400</v>
       </c>
       <c r="E44" s="3">
-        <v>218500</v>
+        <v>208300</v>
       </c>
       <c r="F44" s="3">
-        <v>203800</v>
+        <v>194300</v>
       </c>
       <c r="G44" s="3">
-        <v>191100</v>
+        <v>182200</v>
       </c>
       <c r="H44" s="3">
-        <v>159100</v>
+        <v>151700</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1688,19 +1688,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4700</v>
+        <v>24900</v>
       </c>
       <c r="E45" s="3">
-        <v>7900</v>
+        <v>7500</v>
       </c>
       <c r="F45" s="3">
-        <v>10600</v>
+        <v>10100</v>
       </c>
       <c r="G45" s="3">
-        <v>73100</v>
+        <v>69700</v>
       </c>
       <c r="H45" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1718,19 +1718,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1178800</v>
+        <v>1123700</v>
       </c>
       <c r="E46" s="3">
-        <v>1343300</v>
+        <v>1280500</v>
       </c>
       <c r="F46" s="3">
-        <v>728200</v>
+        <v>694100</v>
       </c>
       <c r="G46" s="3">
-        <v>658800</v>
+        <v>628000</v>
       </c>
       <c r="H46" s="3">
-        <v>449400</v>
+        <v>428400</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1748,10 +1748,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="E47" s="3">
-        <v>51400</v>
+        <v>49000</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1778,19 +1778,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>403400</v>
+        <v>384500</v>
       </c>
       <c r="E48" s="3">
-        <v>111900</v>
+        <v>106700</v>
       </c>
       <c r="F48" s="3">
-        <v>86300</v>
+        <v>82300</v>
       </c>
       <c r="G48" s="3">
-        <v>84200</v>
+        <v>80300</v>
       </c>
       <c r="H48" s="3">
-        <v>75200</v>
+        <v>71700</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1808,19 +1808,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9100</v>
+        <v>8700</v>
       </c>
       <c r="E49" s="3">
-        <v>11800</v>
+        <v>11200</v>
       </c>
       <c r="F49" s="3">
-        <v>10100</v>
+        <v>9600</v>
       </c>
       <c r="G49" s="3">
-        <v>7300</v>
+        <v>6900</v>
       </c>
       <c r="H49" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1898,19 +1898,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>52000</v>
+        <v>49600</v>
       </c>
       <c r="E52" s="3">
-        <v>44800</v>
+        <v>42700</v>
       </c>
       <c r="F52" s="3">
-        <v>27700</v>
+        <v>26400</v>
       </c>
       <c r="G52" s="3">
-        <v>12800</v>
+        <v>12200</v>
       </c>
       <c r="H52" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1958,19 +1958,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1647500</v>
+        <v>1570400</v>
       </c>
       <c r="E54" s="3">
-        <v>1563300</v>
+        <v>1490100</v>
       </c>
       <c r="F54" s="3">
-        <v>852300</v>
+        <v>812400</v>
       </c>
       <c r="G54" s="3">
-        <v>763200</v>
+        <v>727500</v>
       </c>
       <c r="H54" s="3">
-        <v>532300</v>
+        <v>507400</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2016,19 +2016,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>448700</v>
+        <v>90400</v>
       </c>
       <c r="E57" s="3">
-        <v>91200</v>
+        <v>87000</v>
       </c>
       <c r="F57" s="3">
-        <v>70600</v>
+        <v>67300</v>
       </c>
       <c r="G57" s="3">
-        <v>86400</v>
+        <v>82300</v>
       </c>
       <c r="H57" s="3">
-        <v>343000</v>
+        <v>327000</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2046,19 +2046,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>37700</v>
+        <v>36000</v>
       </c>
       <c r="E58" s="3">
-        <v>48900</v>
+        <v>46600</v>
       </c>
       <c r="F58" s="3">
-        <v>91300</v>
+        <v>87000</v>
       </c>
       <c r="G58" s="3">
-        <v>27700</v>
+        <v>26400</v>
       </c>
       <c r="H58" s="3">
-        <v>19900</v>
+        <v>19000</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2076,19 +2076,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>66800</v>
+        <v>401000</v>
       </c>
       <c r="E59" s="3">
-        <v>368500</v>
+        <v>351200</v>
       </c>
       <c r="F59" s="3">
-        <v>321400</v>
+        <v>306400</v>
       </c>
       <c r="G59" s="3">
-        <v>360000</v>
+        <v>343100</v>
       </c>
       <c r="H59" s="3">
-        <v>30100</v>
+        <v>28700</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2106,19 +2106,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>553300</v>
+        <v>527400</v>
       </c>
       <c r="E60" s="3">
-        <v>508600</v>
+        <v>484800</v>
       </c>
       <c r="F60" s="3">
-        <v>483300</v>
+        <v>460700</v>
       </c>
       <c r="G60" s="3">
-        <v>474000</v>
+        <v>451800</v>
       </c>
       <c r="H60" s="3">
-        <v>393100</v>
+        <v>374700</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2136,19 +2136,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>58300</v>
+        <v>55600</v>
       </c>
       <c r="E61" s="3">
-        <v>71600</v>
+        <v>68200</v>
       </c>
       <c r="F61" s="3">
-        <v>405300</v>
+        <v>386300</v>
       </c>
       <c r="G61" s="3">
-        <v>294500</v>
+        <v>280700</v>
       </c>
       <c r="H61" s="3">
-        <v>50500</v>
+        <v>48100</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2166,19 +2166,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9700</v>
+        <v>9200</v>
       </c>
       <c r="E62" s="3">
-        <v>11700</v>
+        <v>11100</v>
       </c>
       <c r="F62" s="3">
+        <v>10300</v>
+      </c>
+      <c r="G62" s="3">
         <v>10800</v>
       </c>
-      <c r="G62" s="3">
-        <v>11300</v>
-      </c>
       <c r="H62" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2286,19 +2286,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>620600</v>
+        <v>591600</v>
       </c>
       <c r="E66" s="3">
-        <v>590800</v>
+        <v>563200</v>
       </c>
       <c r="F66" s="3">
-        <v>901400</v>
+        <v>859300</v>
       </c>
       <c r="G66" s="3">
-        <v>781400</v>
+        <v>744800</v>
       </c>
       <c r="H66" s="3">
-        <v>450100</v>
+        <v>429100</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2450,19 +2450,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-138900</v>
+        <v>-132400</v>
       </c>
       <c r="E72" s="3">
-        <v>-238100</v>
+        <v>-226900</v>
       </c>
       <c r="F72" s="3">
-        <v>-72900</v>
+        <v>-69500</v>
       </c>
       <c r="G72" s="3">
-        <v>-38800</v>
+        <v>-37000</v>
       </c>
       <c r="H72" s="3">
-        <v>28200</v>
+        <v>26800</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2570,19 +2570,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1026800</v>
+        <v>978800</v>
       </c>
       <c r="E76" s="3">
-        <v>972400</v>
+        <v>926900</v>
       </c>
       <c r="F76" s="3">
-        <v>-49200</v>
+        <v>-46900</v>
       </c>
       <c r="G76" s="3">
-        <v>-18200</v>
+        <v>-17400</v>
       </c>
       <c r="H76" s="3">
-        <v>82200</v>
+        <v>78400</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2665,16 +2665,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>93200</v>
+        <v>88800</v>
       </c>
       <c r="E81" s="3">
-        <v>-206600</v>
+        <v>-197000</v>
       </c>
       <c r="F81" s="3">
-        <v>-38300</v>
+        <v>-36500</v>
       </c>
       <c r="G81" s="3">
-        <v>-42400</v>
+        <v>-40500</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
@@ -2708,11 +2708,11 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>54300</v>
       </c>
       <c r="E83" s="3">
-        <v>38700</v>
+        <v>36900</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
@@ -2888,17 +2888,17 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>195800</v>
       </c>
       <c r="E89" s="3">
-        <v>133800</v>
+        <v>127600</v>
       </c>
       <c r="F89" s="3">
-        <v>120700</v>
+        <v>115000</v>
       </c>
       <c r="G89" s="3">
-        <v>151600</v>
+        <v>144600</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2932,17 +2932,17 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-40400</v>
       </c>
       <c r="E91" s="3">
-        <v>-26300</v>
+        <v>-25100</v>
       </c>
       <c r="F91" s="3">
-        <v>-8300</v>
+        <v>-7900</v>
       </c>
       <c r="G91" s="3">
-        <v>-17000</v>
+        <v>-16200</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3022,17 +3022,17 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-295900</v>
       </c>
       <c r="E94" s="3">
-        <v>-75800</v>
+        <v>-72200</v>
       </c>
       <c r="F94" s="3">
-        <v>67600</v>
+        <v>64400</v>
       </c>
       <c r="G94" s="3">
-        <v>-30800</v>
+        <v>-29400</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3067,7 +3067,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-42600</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3186,17 +3186,17 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>-102100</v>
       </c>
       <c r="E100" s="3">
-        <v>516400</v>
+        <v>492200</v>
       </c>
       <c r="F100" s="3">
-        <v>-17200</v>
+        <v>-16400</v>
       </c>
       <c r="G100" s="3">
-        <v>90500</v>
+        <v>86300</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3216,17 +3216,17 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>4200</v>
       </c>
       <c r="E101" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="F101" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="G101" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3246,17 +3246,17 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-198100</v>
       </c>
       <c r="E102" s="3">
-        <v>572100</v>
+        <v>545300</v>
       </c>
       <c r="F102" s="3">
-        <v>170500</v>
+        <v>162600</v>
       </c>
       <c r="G102" s="3">
-        <v>212900</v>
+        <v>203000</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/MNSO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MNSO_YR_FIN.xlsx
@@ -716,16 +716,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1403900</v>
+        <v>1448500</v>
       </c>
       <c r="E8" s="3">
-        <v>1262800</v>
+        <v>1302900</v>
       </c>
       <c r="F8" s="3">
-        <v>1249900</v>
+        <v>1289600</v>
       </c>
       <c r="G8" s="3">
-        <v>1307800</v>
+        <v>1349300</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -746,16 +746,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>976600</v>
+        <v>1007600</v>
       </c>
       <c r="E9" s="3">
-        <v>924400</v>
+        <v>953800</v>
       </c>
       <c r="F9" s="3">
-        <v>869500</v>
+        <v>897100</v>
       </c>
       <c r="G9" s="3">
-        <v>958200</v>
+        <v>988700</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -776,16 +776,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>427300</v>
+        <v>440900</v>
       </c>
       <c r="E10" s="3">
-        <v>338400</v>
+        <v>349100</v>
       </c>
       <c r="F10" s="3">
-        <v>380400</v>
+        <v>392400</v>
       </c>
       <c r="G10" s="3">
-        <v>349500</v>
+        <v>360600</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -880,16 +880,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E14" s="3">
-        <v>-6100</v>
+        <v>-6300</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -951,16 +951,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1281100</v>
+        <v>1321800</v>
       </c>
       <c r="E17" s="3">
-        <v>1207000</v>
+        <v>1245300</v>
       </c>
       <c r="F17" s="3">
-        <v>1143200</v>
+        <v>1179500</v>
       </c>
       <c r="G17" s="3">
-        <v>1166200</v>
+        <v>1203300</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -981,16 +981,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>122800</v>
+        <v>126700</v>
       </c>
       <c r="E18" s="3">
-        <v>55800</v>
+        <v>57600</v>
       </c>
       <c r="F18" s="3">
-        <v>106700</v>
+        <v>110100</v>
       </c>
       <c r="G18" s="3">
-        <v>141500</v>
+        <v>146000</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1025,16 +1025,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8100</v>
+        <v>8400</v>
       </c>
       <c r="E20" s="3">
-        <v>-221200</v>
+        <v>-228200</v>
       </c>
       <c r="F20" s="3">
-        <v>-91100</v>
+        <v>-94000</v>
       </c>
       <c r="G20" s="3">
-        <v>-97800</v>
+        <v>-100900</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1055,10 +1055,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>184700</v>
+        <v>191100</v>
       </c>
       <c r="E21" s="3">
-        <v>-128700</v>
+        <v>-132500</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1085,16 +1085,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="E22" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="F22" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="G22" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1115,16 +1115,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>126200</v>
+        <v>130200</v>
       </c>
       <c r="E23" s="3">
-        <v>-169300</v>
+        <v>-174700</v>
       </c>
       <c r="F23" s="3">
-        <v>11200</v>
+        <v>11600</v>
       </c>
       <c r="G23" s="3">
-        <v>40200</v>
+        <v>41500</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1145,16 +1145,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>37200</v>
+        <v>38400</v>
       </c>
       <c r="E24" s="3">
-        <v>29700</v>
+        <v>30600</v>
       </c>
       <c r="F24" s="3">
-        <v>29400</v>
+        <v>30300</v>
       </c>
       <c r="G24" s="3">
-        <v>38900</v>
+        <v>40200</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1205,16 +1205,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>89100</v>
+        <v>91900</v>
       </c>
       <c r="E26" s="3">
-        <v>-199000</v>
+        <v>-205300</v>
       </c>
       <c r="F26" s="3">
-        <v>-18100</v>
+        <v>-18700</v>
       </c>
       <c r="G26" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -1235,16 +1235,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>88800</v>
+        <v>91700</v>
       </c>
       <c r="E27" s="3">
-        <v>-197000</v>
+        <v>-203200</v>
       </c>
       <c r="F27" s="3">
-        <v>-18400</v>
+        <v>-19000</v>
       </c>
       <c r="G27" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -1301,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-18100</v>
+        <v>-18700</v>
       </c>
       <c r="G29" s="3">
-        <v>-42300</v>
+        <v>-43600</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -1385,16 +1385,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8100</v>
+        <v>-8400</v>
       </c>
       <c r="E32" s="3">
-        <v>221200</v>
+        <v>228200</v>
       </c>
       <c r="F32" s="3">
-        <v>91100</v>
+        <v>94000</v>
       </c>
       <c r="G32" s="3">
-        <v>97800</v>
+        <v>100900</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1415,16 +1415,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>88800</v>
+        <v>91700</v>
       </c>
       <c r="E33" s="3">
-        <v>-197000</v>
+        <v>-203200</v>
       </c>
       <c r="F33" s="3">
-        <v>-36500</v>
+        <v>-37700</v>
       </c>
       <c r="G33" s="3">
-        <v>-40500</v>
+        <v>-41700</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -1475,16 +1475,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>88800</v>
+        <v>91700</v>
       </c>
       <c r="E35" s="3">
-        <v>-197000</v>
+        <v>-203200</v>
       </c>
       <c r="F35" s="3">
-        <v>-36500</v>
+        <v>-37700</v>
       </c>
       <c r="G35" s="3">
-        <v>-40500</v>
+        <v>-41700</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -1568,19 +1568,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>744500</v>
+        <v>768200</v>
       </c>
       <c r="E41" s="3">
-        <v>942600</v>
+        <v>972500</v>
       </c>
       <c r="F41" s="3">
-        <v>397300</v>
+        <v>409900</v>
       </c>
       <c r="G41" s="3">
-        <v>215200</v>
+        <v>222100</v>
       </c>
       <c r="H41" s="3">
-        <v>31800</v>
+        <v>32800</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1598,16 +1598,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>62300</v>
+        <v>64300</v>
       </c>
       <c r="E42" s="3">
-        <v>14300</v>
+        <v>14800</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>49600</v>
+        <v>51200</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>126700</v>
+        <v>130700</v>
       </c>
       <c r="E43" s="3">
-        <v>107800</v>
+        <v>111200</v>
       </c>
       <c r="F43" s="3">
-        <v>92500</v>
+        <v>95400</v>
       </c>
       <c r="G43" s="3">
-        <v>111300</v>
+        <v>114900</v>
       </c>
       <c r="H43" s="3">
-        <v>244300</v>
+        <v>252100</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1658,19 +1658,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>165400</v>
+        <v>170600</v>
       </c>
       <c r="E44" s="3">
-        <v>208300</v>
+        <v>214900</v>
       </c>
       <c r="F44" s="3">
-        <v>194300</v>
+        <v>200400</v>
       </c>
       <c r="G44" s="3">
-        <v>182200</v>
+        <v>188000</v>
       </c>
       <c r="H44" s="3">
-        <v>151700</v>
+        <v>156500</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1688,19 +1688,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24900</v>
+        <v>25700</v>
       </c>
       <c r="E45" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="F45" s="3">
-        <v>10100</v>
+        <v>10400</v>
       </c>
       <c r="G45" s="3">
-        <v>69700</v>
+        <v>71900</v>
       </c>
       <c r="H45" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1718,19 +1718,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1123700</v>
+        <v>1159400</v>
       </c>
       <c r="E46" s="3">
-        <v>1280500</v>
+        <v>1321200</v>
       </c>
       <c r="F46" s="3">
-        <v>694100</v>
+        <v>716200</v>
       </c>
       <c r="G46" s="3">
-        <v>628000</v>
+        <v>648000</v>
       </c>
       <c r="H46" s="3">
-        <v>428400</v>
+        <v>442000</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1748,10 +1748,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="E47" s="3">
-        <v>49000</v>
+        <v>50600</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1778,19 +1778,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>384500</v>
+        <v>396700</v>
       </c>
       <c r="E48" s="3">
-        <v>106700</v>
+        <v>110000</v>
       </c>
       <c r="F48" s="3">
-        <v>82300</v>
+        <v>84900</v>
       </c>
       <c r="G48" s="3">
-        <v>80300</v>
+        <v>82800</v>
       </c>
       <c r="H48" s="3">
-        <v>71700</v>
+        <v>74000</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1808,19 +1808,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8700</v>
+        <v>9000</v>
       </c>
       <c r="E49" s="3">
-        <v>11200</v>
+        <v>11600</v>
       </c>
       <c r="F49" s="3">
-        <v>9600</v>
+        <v>9900</v>
       </c>
       <c r="G49" s="3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="H49" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1898,19 +1898,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>49600</v>
+        <v>51100</v>
       </c>
       <c r="E52" s="3">
-        <v>42700</v>
+        <v>44100</v>
       </c>
       <c r="F52" s="3">
-        <v>26400</v>
+        <v>27200</v>
       </c>
       <c r="G52" s="3">
-        <v>12200</v>
+        <v>12600</v>
       </c>
       <c r="H52" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1958,19 +1958,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1570400</v>
+        <v>1620300</v>
       </c>
       <c r="E54" s="3">
-        <v>1490100</v>
+        <v>1537500</v>
       </c>
       <c r="F54" s="3">
-        <v>812400</v>
+        <v>838200</v>
       </c>
       <c r="G54" s="3">
-        <v>727500</v>
+        <v>750600</v>
       </c>
       <c r="H54" s="3">
-        <v>507400</v>
+        <v>523500</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2016,19 +2016,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>90400</v>
+        <v>93300</v>
       </c>
       <c r="E57" s="3">
-        <v>87000</v>
+        <v>89700</v>
       </c>
       <c r="F57" s="3">
-        <v>67300</v>
+        <v>69400</v>
       </c>
       <c r="G57" s="3">
-        <v>82300</v>
+        <v>84900</v>
       </c>
       <c r="H57" s="3">
-        <v>327000</v>
+        <v>337400</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2046,19 +2046,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>36000</v>
+        <v>37100</v>
       </c>
       <c r="E58" s="3">
-        <v>46600</v>
+        <v>48100</v>
       </c>
       <c r="F58" s="3">
-        <v>87000</v>
+        <v>89800</v>
       </c>
       <c r="G58" s="3">
-        <v>26400</v>
+        <v>27200</v>
       </c>
       <c r="H58" s="3">
-        <v>19000</v>
+        <v>19600</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2076,19 +2076,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>401000</v>
+        <v>413700</v>
       </c>
       <c r="E59" s="3">
-        <v>351200</v>
+        <v>362400</v>
       </c>
       <c r="F59" s="3">
-        <v>306400</v>
+        <v>316100</v>
       </c>
       <c r="G59" s="3">
-        <v>343100</v>
+        <v>354000</v>
       </c>
       <c r="H59" s="3">
-        <v>28700</v>
+        <v>29600</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2106,19 +2106,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>527400</v>
+        <v>544100</v>
       </c>
       <c r="E60" s="3">
-        <v>484800</v>
+        <v>500200</v>
       </c>
       <c r="F60" s="3">
-        <v>460700</v>
+        <v>475300</v>
       </c>
       <c r="G60" s="3">
-        <v>451800</v>
+        <v>466200</v>
       </c>
       <c r="H60" s="3">
-        <v>374700</v>
+        <v>386600</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2136,19 +2136,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>55600</v>
+        <v>57400</v>
       </c>
       <c r="E61" s="3">
-        <v>68200</v>
+        <v>70400</v>
       </c>
       <c r="F61" s="3">
-        <v>386300</v>
+        <v>398600</v>
       </c>
       <c r="G61" s="3">
-        <v>280700</v>
+        <v>289600</v>
       </c>
       <c r="H61" s="3">
-        <v>48100</v>
+        <v>49600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2166,19 +2166,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9200</v>
+        <v>9500</v>
       </c>
       <c r="E62" s="3">
-        <v>11100</v>
+        <v>11500</v>
       </c>
       <c r="F62" s="3">
-        <v>10300</v>
+        <v>10700</v>
       </c>
       <c r="G62" s="3">
-        <v>10800</v>
+        <v>11200</v>
       </c>
       <c r="H62" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2286,19 +2286,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>591600</v>
+        <v>610400</v>
       </c>
       <c r="E66" s="3">
-        <v>563200</v>
+        <v>581100</v>
       </c>
       <c r="F66" s="3">
-        <v>859300</v>
+        <v>886500</v>
       </c>
       <c r="G66" s="3">
-        <v>744800</v>
+        <v>768500</v>
       </c>
       <c r="H66" s="3">
-        <v>429100</v>
+        <v>442700</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2450,19 +2450,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-132400</v>
+        <v>-136600</v>
       </c>
       <c r="E72" s="3">
-        <v>-226900</v>
+        <v>-234100</v>
       </c>
       <c r="F72" s="3">
-        <v>-69500</v>
+        <v>-71700</v>
       </c>
       <c r="G72" s="3">
-        <v>-37000</v>
+        <v>-38200</v>
       </c>
       <c r="H72" s="3">
-        <v>26800</v>
+        <v>27700</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2570,19 +2570,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>978800</v>
+        <v>1009900</v>
       </c>
       <c r="E76" s="3">
-        <v>926900</v>
+        <v>956400</v>
       </c>
       <c r="F76" s="3">
-        <v>-46900</v>
+        <v>-48300</v>
       </c>
       <c r="G76" s="3">
-        <v>-17400</v>
+        <v>-17900</v>
       </c>
       <c r="H76" s="3">
-        <v>78400</v>
+        <v>80900</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2665,16 +2665,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>88800</v>
+        <v>91700</v>
       </c>
       <c r="E81" s="3">
-        <v>-197000</v>
+        <v>-203200</v>
       </c>
       <c r="F81" s="3">
-        <v>-36500</v>
+        <v>-37700</v>
       </c>
       <c r="G81" s="3">
-        <v>-40500</v>
+        <v>-41700</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
@@ -2709,10 +2709,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>54300</v>
+        <v>56000</v>
       </c>
       <c r="E83" s="3">
-        <v>36900</v>
+        <v>38100</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
@@ -2889,16 +2889,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>195800</v>
+        <v>202000</v>
       </c>
       <c r="E89" s="3">
-        <v>127600</v>
+        <v>131600</v>
       </c>
       <c r="F89" s="3">
-        <v>115000</v>
+        <v>118700</v>
       </c>
       <c r="G89" s="3">
-        <v>144600</v>
+        <v>149100</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2933,16 +2933,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-40400</v>
+        <v>-41700</v>
       </c>
       <c r="E91" s="3">
-        <v>-25100</v>
+        <v>-25900</v>
       </c>
       <c r="F91" s="3">
-        <v>-7900</v>
+        <v>-8200</v>
       </c>
       <c r="G91" s="3">
-        <v>-16200</v>
+        <v>-16700</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3023,16 +3023,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-295900</v>
+        <v>-305300</v>
       </c>
       <c r="E94" s="3">
-        <v>-72200</v>
+        <v>-74500</v>
       </c>
       <c r="F94" s="3">
-        <v>64400</v>
+        <v>66500</v>
       </c>
       <c r="G94" s="3">
-        <v>-29400</v>
+        <v>-30300</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3067,7 +3067,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-42600</v>
+        <v>-44000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3187,16 +3187,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-102100</v>
+        <v>-105400</v>
       </c>
       <c r="E100" s="3">
-        <v>492200</v>
+        <v>507900</v>
       </c>
       <c r="F100" s="3">
-        <v>-16400</v>
+        <v>-16900</v>
       </c>
       <c r="G100" s="3">
-        <v>86300</v>
+        <v>89000</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3217,13 +3217,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="E101" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="F101" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="G101" s="3">
         <v>1500</v>
@@ -3247,16 +3247,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-198100</v>
+        <v>-204400</v>
       </c>
       <c r="E102" s="3">
-        <v>545300</v>
+        <v>562700</v>
       </c>
       <c r="F102" s="3">
-        <v>162600</v>
+        <v>167700</v>
       </c>
       <c r="G102" s="3">
-        <v>203000</v>
+        <v>209400</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/MNSO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MNSO_YR_FIN.xlsx
@@ -716,16 +716,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1448500</v>
+        <v>1433700</v>
       </c>
       <c r="E8" s="3">
-        <v>1302900</v>
+        <v>1289500</v>
       </c>
       <c r="F8" s="3">
-        <v>1289600</v>
+        <v>1276400</v>
       </c>
       <c r="G8" s="3">
-        <v>1349300</v>
+        <v>1335500</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -746,16 +746,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1007600</v>
+        <v>997300</v>
       </c>
       <c r="E9" s="3">
-        <v>953800</v>
+        <v>944000</v>
       </c>
       <c r="F9" s="3">
-        <v>897100</v>
+        <v>887900</v>
       </c>
       <c r="G9" s="3">
-        <v>988700</v>
+        <v>978600</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -776,16 +776,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>440900</v>
+        <v>436400</v>
       </c>
       <c r="E10" s="3">
-        <v>349100</v>
+        <v>345500</v>
       </c>
       <c r="F10" s="3">
-        <v>392400</v>
+        <v>388400</v>
       </c>
       <c r="G10" s="3">
-        <v>360600</v>
+        <v>356900</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -883,7 +883,7 @@
         <v>-200</v>
       </c>
       <c r="E14" s="3">
-        <v>-6300</v>
+        <v>-6200</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -951,16 +951,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1321800</v>
+        <v>1308300</v>
       </c>
       <c r="E17" s="3">
-        <v>1245300</v>
+        <v>1232500</v>
       </c>
       <c r="F17" s="3">
-        <v>1179500</v>
+        <v>1167400</v>
       </c>
       <c r="G17" s="3">
-        <v>1203300</v>
+        <v>1191000</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -981,16 +981,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>126700</v>
+        <v>125400</v>
       </c>
       <c r="E18" s="3">
-        <v>57600</v>
+        <v>57000</v>
       </c>
       <c r="F18" s="3">
-        <v>110100</v>
+        <v>109000</v>
       </c>
       <c r="G18" s="3">
-        <v>146000</v>
+        <v>144500</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1025,16 +1025,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="E20" s="3">
-        <v>-228200</v>
+        <v>-225900</v>
       </c>
       <c r="F20" s="3">
-        <v>-94000</v>
+        <v>-93000</v>
       </c>
       <c r="G20" s="3">
-        <v>-100900</v>
+        <v>-99900</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1055,10 +1055,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>191100</v>
+        <v>189400</v>
       </c>
       <c r="E21" s="3">
-        <v>-132500</v>
+        <v>-131000</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1085,10 +1085,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="E22" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="F22" s="3">
         <v>4500</v>
@@ -1115,16 +1115,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>130200</v>
+        <v>128900</v>
       </c>
       <c r="E23" s="3">
-        <v>-174700</v>
+        <v>-172900</v>
       </c>
       <c r="F23" s="3">
-        <v>11600</v>
+        <v>11500</v>
       </c>
       <c r="G23" s="3">
-        <v>41500</v>
+        <v>41100</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1145,16 +1145,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>38400</v>
+        <v>38000</v>
       </c>
       <c r="E24" s="3">
-        <v>30600</v>
+        <v>30300</v>
       </c>
       <c r="F24" s="3">
-        <v>30300</v>
+        <v>30000</v>
       </c>
       <c r="G24" s="3">
-        <v>40200</v>
+        <v>39700</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1205,16 +1205,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>91900</v>
+        <v>90900</v>
       </c>
       <c r="E26" s="3">
-        <v>-205300</v>
+        <v>-203200</v>
       </c>
       <c r="F26" s="3">
-        <v>-18700</v>
+        <v>-18500</v>
       </c>
       <c r="G26" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -1235,13 +1235,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>91700</v>
+        <v>90700</v>
       </c>
       <c r="E27" s="3">
-        <v>-203200</v>
+        <v>-201100</v>
       </c>
       <c r="F27" s="3">
-        <v>-19000</v>
+        <v>-18800</v>
       </c>
       <c r="G27" s="3">
         <v>1900</v>
@@ -1301,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-18700</v>
+        <v>-18500</v>
       </c>
       <c r="G29" s="3">
-        <v>-43600</v>
+        <v>-43200</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -1385,16 +1385,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8400</v>
+        <v>-8300</v>
       </c>
       <c r="E32" s="3">
-        <v>228200</v>
+        <v>225900</v>
       </c>
       <c r="F32" s="3">
-        <v>94000</v>
+        <v>93000</v>
       </c>
       <c r="G32" s="3">
-        <v>100900</v>
+        <v>99900</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1415,16 +1415,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>91700</v>
+        <v>90700</v>
       </c>
       <c r="E33" s="3">
-        <v>-203200</v>
+        <v>-201100</v>
       </c>
       <c r="F33" s="3">
-        <v>-37700</v>
+        <v>-37300</v>
       </c>
       <c r="G33" s="3">
-        <v>-41700</v>
+        <v>-41300</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -1475,16 +1475,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>91700</v>
+        <v>90700</v>
       </c>
       <c r="E35" s="3">
-        <v>-203200</v>
+        <v>-201100</v>
       </c>
       <c r="F35" s="3">
-        <v>-37700</v>
+        <v>-37300</v>
       </c>
       <c r="G35" s="3">
-        <v>-41700</v>
+        <v>-41300</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -1568,19 +1568,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>768200</v>
+        <v>760300</v>
       </c>
       <c r="E41" s="3">
-        <v>972500</v>
+        <v>962600</v>
       </c>
       <c r="F41" s="3">
-        <v>409900</v>
+        <v>405700</v>
       </c>
       <c r="G41" s="3">
-        <v>222100</v>
+        <v>219800</v>
       </c>
       <c r="H41" s="3">
-        <v>32800</v>
+        <v>32400</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1598,16 +1598,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>64300</v>
+        <v>63600</v>
       </c>
       <c r="E42" s="3">
-        <v>14800</v>
+        <v>14600</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>51200</v>
+        <v>50600</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>130700</v>
+        <v>129300</v>
       </c>
       <c r="E43" s="3">
-        <v>111200</v>
+        <v>110100</v>
       </c>
       <c r="F43" s="3">
-        <v>95400</v>
+        <v>94400</v>
       </c>
       <c r="G43" s="3">
-        <v>114900</v>
+        <v>113700</v>
       </c>
       <c r="H43" s="3">
-        <v>252100</v>
+        <v>249500</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1658,19 +1658,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>170600</v>
+        <v>168900</v>
       </c>
       <c r="E44" s="3">
-        <v>214900</v>
+        <v>212700</v>
       </c>
       <c r="F44" s="3">
-        <v>200400</v>
+        <v>198400</v>
       </c>
       <c r="G44" s="3">
-        <v>188000</v>
+        <v>186100</v>
       </c>
       <c r="H44" s="3">
-        <v>156500</v>
+        <v>154900</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1688,16 +1688,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>25700</v>
+        <v>25400</v>
       </c>
       <c r="E45" s="3">
         <v>7700</v>
       </c>
       <c r="F45" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="G45" s="3">
-        <v>71900</v>
+        <v>71100</v>
       </c>
       <c r="H45" s="3">
         <v>700</v>
@@ -1718,19 +1718,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1159400</v>
+        <v>1147500</v>
       </c>
       <c r="E46" s="3">
-        <v>1321200</v>
+        <v>1307700</v>
       </c>
       <c r="F46" s="3">
-        <v>716200</v>
+        <v>708800</v>
       </c>
       <c r="G46" s="3">
-        <v>648000</v>
+        <v>641300</v>
       </c>
       <c r="H46" s="3">
-        <v>442000</v>
+        <v>437400</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1748,10 +1748,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="E47" s="3">
-        <v>50600</v>
+        <v>50000</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1778,19 +1778,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>396700</v>
+        <v>392700</v>
       </c>
       <c r="E48" s="3">
-        <v>110000</v>
+        <v>108900</v>
       </c>
       <c r="F48" s="3">
-        <v>84900</v>
+        <v>84000</v>
       </c>
       <c r="G48" s="3">
-        <v>82800</v>
+        <v>82000</v>
       </c>
       <c r="H48" s="3">
-        <v>74000</v>
+        <v>73200</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1808,16 +1808,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="E49" s="3">
-        <v>11600</v>
+        <v>11500</v>
       </c>
       <c r="F49" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="G49" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="H49" s="3">
         <v>4500</v>
@@ -1898,19 +1898,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>51100</v>
+        <v>50600</v>
       </c>
       <c r="E52" s="3">
-        <v>44100</v>
+        <v>43600</v>
       </c>
       <c r="F52" s="3">
-        <v>27200</v>
+        <v>27000</v>
       </c>
       <c r="G52" s="3">
-        <v>12600</v>
+        <v>12500</v>
       </c>
       <c r="H52" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1958,19 +1958,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1620300</v>
+        <v>1603700</v>
       </c>
       <c r="E54" s="3">
-        <v>1537500</v>
+        <v>1521700</v>
       </c>
       <c r="F54" s="3">
-        <v>838200</v>
+        <v>829600</v>
       </c>
       <c r="G54" s="3">
-        <v>750600</v>
+        <v>742900</v>
       </c>
       <c r="H54" s="3">
-        <v>523500</v>
+        <v>518200</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2016,19 +2016,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>93300</v>
+        <v>92300</v>
       </c>
       <c r="E57" s="3">
-        <v>89700</v>
+        <v>88800</v>
       </c>
       <c r="F57" s="3">
-        <v>69400</v>
+        <v>68700</v>
       </c>
       <c r="G57" s="3">
-        <v>84900</v>
+        <v>84100</v>
       </c>
       <c r="H57" s="3">
-        <v>337400</v>
+        <v>333900</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2046,19 +2046,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>37100</v>
+        <v>36700</v>
       </c>
       <c r="E58" s="3">
-        <v>48100</v>
+        <v>47600</v>
       </c>
       <c r="F58" s="3">
-        <v>89800</v>
+        <v>88900</v>
       </c>
       <c r="G58" s="3">
-        <v>27200</v>
+        <v>26900</v>
       </c>
       <c r="H58" s="3">
-        <v>19600</v>
+        <v>19400</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2076,19 +2076,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>413700</v>
+        <v>409500</v>
       </c>
       <c r="E59" s="3">
-        <v>362400</v>
+        <v>358700</v>
       </c>
       <c r="F59" s="3">
-        <v>316100</v>
+        <v>312900</v>
       </c>
       <c r="G59" s="3">
-        <v>354000</v>
+        <v>350400</v>
       </c>
       <c r="H59" s="3">
-        <v>29600</v>
+        <v>29300</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2106,19 +2106,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>544100</v>
+        <v>538600</v>
       </c>
       <c r="E60" s="3">
-        <v>500200</v>
+        <v>495100</v>
       </c>
       <c r="F60" s="3">
-        <v>475300</v>
+        <v>470500</v>
       </c>
       <c r="G60" s="3">
-        <v>466200</v>
+        <v>461400</v>
       </c>
       <c r="H60" s="3">
-        <v>386600</v>
+        <v>382600</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2136,19 +2136,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>57400</v>
+        <v>56800</v>
       </c>
       <c r="E61" s="3">
-        <v>70400</v>
+        <v>69700</v>
       </c>
       <c r="F61" s="3">
-        <v>398600</v>
+        <v>394500</v>
       </c>
       <c r="G61" s="3">
-        <v>289600</v>
+        <v>286600</v>
       </c>
       <c r="H61" s="3">
-        <v>49600</v>
+        <v>49100</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2166,16 +2166,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="E62" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="F62" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="G62" s="3">
-        <v>11200</v>
+        <v>11000</v>
       </c>
       <c r="H62" s="3">
         <v>6200</v>
@@ -2286,19 +2286,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>610400</v>
+        <v>604200</v>
       </c>
       <c r="E66" s="3">
-        <v>581100</v>
+        <v>575100</v>
       </c>
       <c r="F66" s="3">
-        <v>886500</v>
+        <v>877500</v>
       </c>
       <c r="G66" s="3">
-        <v>768500</v>
+        <v>760600</v>
       </c>
       <c r="H66" s="3">
-        <v>442700</v>
+        <v>438100</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2450,19 +2450,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-136600</v>
+        <v>-135200</v>
       </c>
       <c r="E72" s="3">
-        <v>-234100</v>
+        <v>-231700</v>
       </c>
       <c r="F72" s="3">
-        <v>-71700</v>
+        <v>-70900</v>
       </c>
       <c r="G72" s="3">
-        <v>-38200</v>
+        <v>-37800</v>
       </c>
       <c r="H72" s="3">
-        <v>27700</v>
+        <v>27400</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2570,19 +2570,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1009900</v>
+        <v>999500</v>
       </c>
       <c r="E76" s="3">
-        <v>956400</v>
+        <v>946600</v>
       </c>
       <c r="F76" s="3">
-        <v>-48300</v>
+        <v>-47900</v>
       </c>
       <c r="G76" s="3">
-        <v>-17900</v>
+        <v>-17700</v>
       </c>
       <c r="H76" s="3">
-        <v>80900</v>
+        <v>80000</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2665,16 +2665,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>91700</v>
+        <v>90700</v>
       </c>
       <c r="E81" s="3">
-        <v>-203200</v>
+        <v>-201100</v>
       </c>
       <c r="F81" s="3">
-        <v>-37700</v>
+        <v>-37300</v>
       </c>
       <c r="G81" s="3">
-        <v>-41700</v>
+        <v>-41300</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
@@ -2709,10 +2709,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>56000</v>
+        <v>55400</v>
       </c>
       <c r="E83" s="3">
-        <v>38100</v>
+        <v>37700</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
@@ -2889,16 +2889,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>202000</v>
+        <v>199900</v>
       </c>
       <c r="E89" s="3">
-        <v>131600</v>
+        <v>130300</v>
       </c>
       <c r="F89" s="3">
-        <v>118700</v>
+        <v>117500</v>
       </c>
       <c r="G89" s="3">
-        <v>149100</v>
+        <v>147600</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2933,16 +2933,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-41700</v>
+        <v>-41200</v>
       </c>
       <c r="E91" s="3">
-        <v>-25900</v>
+        <v>-25600</v>
       </c>
       <c r="F91" s="3">
-        <v>-8200</v>
+        <v>-8100</v>
       </c>
       <c r="G91" s="3">
-        <v>-16700</v>
+        <v>-16500</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3023,16 +3023,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-305300</v>
+        <v>-302200</v>
       </c>
       <c r="E94" s="3">
-        <v>-74500</v>
+        <v>-73700</v>
       </c>
       <c r="F94" s="3">
-        <v>66500</v>
+        <v>65800</v>
       </c>
       <c r="G94" s="3">
-        <v>-30300</v>
+        <v>-30000</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3067,7 +3067,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-44000</v>
+        <v>-43500</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3187,16 +3187,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-105400</v>
+        <v>-104300</v>
       </c>
       <c r="E100" s="3">
-        <v>507900</v>
+        <v>502700</v>
       </c>
       <c r="F100" s="3">
-        <v>-16900</v>
+        <v>-16700</v>
       </c>
       <c r="G100" s="3">
-        <v>89000</v>
+        <v>88100</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3223,7 +3223,7 @@
         <v>-2300</v>
       </c>
       <c r="F101" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="G101" s="3">
         <v>1500</v>
@@ -3247,16 +3247,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-204400</v>
+        <v>-202300</v>
       </c>
       <c r="E102" s="3">
-        <v>562700</v>
+        <v>556900</v>
       </c>
       <c r="F102" s="3">
-        <v>167700</v>
+        <v>166000</v>
       </c>
       <c r="G102" s="3">
-        <v>209400</v>
+        <v>207300</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/MNSO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MNSO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
   <si>
     <t>MNSO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,76 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43282</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1433700</v>
+        <v>1580800</v>
       </c>
       <c r="E8" s="3">
-        <v>1289500</v>
+        <v>1389600</v>
       </c>
       <c r="F8" s="3">
-        <v>1276400</v>
+        <v>1249900</v>
       </c>
       <c r="G8" s="3">
-        <v>1335500</v>
+        <v>1237100</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>1294400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -739,26 +742,29 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>997300</v>
+        <v>968600</v>
       </c>
       <c r="E9" s="3">
-        <v>944000</v>
+        <v>966600</v>
       </c>
       <c r="F9" s="3">
-        <v>887900</v>
+        <v>915000</v>
       </c>
       <c r="G9" s="3">
-        <v>978600</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>860600</v>
+      </c>
+      <c r="H9" s="3">
+        <v>948500</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -769,26 +775,29 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>436400</v>
+        <v>612200</v>
       </c>
       <c r="E10" s="3">
-        <v>345500</v>
+        <v>423000</v>
       </c>
       <c r="F10" s="3">
-        <v>388400</v>
+        <v>334900</v>
       </c>
       <c r="G10" s="3">
-        <v>356900</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+        <v>376500</v>
+      </c>
+      <c r="H10" s="3">
+        <v>346000</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -799,9 +808,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,8 +826,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -843,9 +856,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,26 +889,29 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-200</v>
+        <v>500</v>
       </c>
       <c r="E14" s="3">
-        <v>-6200</v>
+        <v>-100</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>-6000</v>
       </c>
       <c r="G14" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2500</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -903,9 +922,12 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -933,9 +955,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -945,25 +970,26 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1308300</v>
+        <v>1274500</v>
       </c>
       <c r="E17" s="3">
-        <v>1232500</v>
+        <v>1268100</v>
       </c>
       <c r="F17" s="3">
-        <v>1167400</v>
+        <v>1194600</v>
       </c>
       <c r="G17" s="3">
-        <v>1191000</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>1131500</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1154400</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -974,26 +1000,29 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>125400</v>
+        <v>306300</v>
       </c>
       <c r="E18" s="3">
-        <v>57000</v>
+        <v>121500</v>
       </c>
       <c r="F18" s="3">
-        <v>109000</v>
+        <v>55300</v>
       </c>
       <c r="G18" s="3">
-        <v>144500</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>105600</v>
+      </c>
+      <c r="H18" s="3">
+        <v>140100</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1004,9 +1033,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,25 +1051,26 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8300</v>
+        <v>15200</v>
       </c>
       <c r="E20" s="3">
-        <v>-225900</v>
+        <v>8000</v>
       </c>
       <c r="F20" s="3">
-        <v>-93000</v>
+        <v>-218900</v>
       </c>
       <c r="G20" s="3">
-        <v>-99900</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+        <v>-90200</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-96800</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1048,20 +1081,23 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>189400</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-131000</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+        <v>183300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-127100</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1078,26 +1114,29 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>4700</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>4000</v>
+        <v>4600</v>
       </c>
       <c r="F22" s="3">
-        <v>4500</v>
+        <v>3900</v>
       </c>
       <c r="G22" s="3">
-        <v>3600</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+        <v>4300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3500</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1108,29 +1147,32 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>128900</v>
+        <v>321500</v>
       </c>
       <c r="E23" s="3">
-        <v>-172900</v>
+        <v>124900</v>
       </c>
       <c r="F23" s="3">
-        <v>11500</v>
+        <v>-167600</v>
       </c>
       <c r="G23" s="3">
-        <v>41100</v>
+        <v>11100</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>39800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1138,26 +1180,29 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>38000</v>
+        <v>76000</v>
       </c>
       <c r="E24" s="3">
-        <v>30300</v>
+        <v>36800</v>
       </c>
       <c r="F24" s="3">
-        <v>30000</v>
+        <v>29400</v>
       </c>
       <c r="G24" s="3">
-        <v>39700</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+        <v>29100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>38500</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1168,9 +1213,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1198,29 +1246,32 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>90900</v>
+        <v>245500</v>
       </c>
       <c r="E26" s="3">
-        <v>-203200</v>
+        <v>88100</v>
       </c>
       <c r="F26" s="3">
-        <v>-18500</v>
+        <v>-196900</v>
       </c>
       <c r="G26" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="H26" s="3">
         <v>1300</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1228,29 +1279,32 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>90700</v>
+        <v>243700</v>
       </c>
       <c r="E27" s="3">
-        <v>-201100</v>
+        <v>87900</v>
       </c>
       <c r="F27" s="3">
-        <v>-18800</v>
+        <v>-195000</v>
       </c>
       <c r="G27" s="3">
-        <v>1900</v>
+        <v>-18200</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>1800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1258,9 +1312,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1288,26 +1345,29 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-18500</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-43200</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
+        <v>-17900</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-41900</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
@@ -1318,9 +1378,12 @@
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1348,9 +1411,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1378,26 +1444,29 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8300</v>
+        <v>-15200</v>
       </c>
       <c r="E32" s="3">
-        <v>225900</v>
+        <v>-8000</v>
       </c>
       <c r="F32" s="3">
-        <v>93000</v>
+        <v>218900</v>
       </c>
       <c r="G32" s="3">
-        <v>99900</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+        <v>90200</v>
+      </c>
+      <c r="H32" s="3">
+        <v>96800</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1408,29 +1477,32 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>90700</v>
+        <v>243700</v>
       </c>
       <c r="E33" s="3">
-        <v>-201100</v>
+        <v>87900</v>
       </c>
       <c r="F33" s="3">
-        <v>-37300</v>
+        <v>-195000</v>
       </c>
       <c r="G33" s="3">
-        <v>-41300</v>
+        <v>-36100</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>-40000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1438,9 +1510,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1468,29 +1543,32 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>90700</v>
+        <v>243700</v>
       </c>
       <c r="E35" s="3">
-        <v>-201100</v>
+        <v>87900</v>
       </c>
       <c r="F35" s="3">
-        <v>-37300</v>
+        <v>-195000</v>
       </c>
       <c r="G35" s="3">
-        <v>-41300</v>
+        <v>-36100</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>-40000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1498,44 +1576,50 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43282</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1548,8 +1632,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1562,28 +1647,29 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>760300</v>
+        <v>894100</v>
       </c>
       <c r="E41" s="3">
-        <v>962600</v>
+        <v>736900</v>
       </c>
       <c r="F41" s="3">
-        <v>405700</v>
+        <v>933000</v>
       </c>
       <c r="G41" s="3">
-        <v>219800</v>
+        <v>393200</v>
       </c>
       <c r="H41" s="3">
-        <v>32400</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>213000</v>
+      </c>
+      <c r="I41" s="3">
+        <v>31400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1591,29 +1677,32 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>63600</v>
+        <v>108400</v>
       </c>
       <c r="E42" s="3">
-        <v>14600</v>
+        <v>61600</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>14200</v>
       </c>
       <c r="G42" s="3">
-        <v>50600</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+        <v>49100</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1621,29 +1710,32 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>129300</v>
+        <v>158500</v>
       </c>
       <c r="E43" s="3">
-        <v>110100</v>
+        <v>125400</v>
       </c>
       <c r="F43" s="3">
-        <v>94400</v>
+        <v>106700</v>
       </c>
       <c r="G43" s="3">
-        <v>113700</v>
+        <v>91500</v>
       </c>
       <c r="H43" s="3">
-        <v>249500</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>110200</v>
+      </c>
+      <c r="I43" s="3">
+        <v>241800</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1651,29 +1743,32 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>168900</v>
+        <v>199900</v>
       </c>
       <c r="E44" s="3">
-        <v>212700</v>
+        <v>163700</v>
       </c>
       <c r="F44" s="3">
-        <v>198400</v>
+        <v>206100</v>
       </c>
       <c r="G44" s="3">
-        <v>186100</v>
+        <v>192300</v>
       </c>
       <c r="H44" s="3">
-        <v>154900</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
+        <v>180300</v>
+      </c>
+      <c r="I44" s="3">
+        <v>150100</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1681,29 +1776,32 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>25400</v>
+        <v>3700</v>
       </c>
       <c r="E45" s="3">
-        <v>7700</v>
+        <v>24600</v>
       </c>
       <c r="F45" s="3">
-        <v>10300</v>
+        <v>7400</v>
       </c>
       <c r="G45" s="3">
-        <v>71100</v>
+        <v>10000</v>
       </c>
       <c r="H45" s="3">
-        <v>700</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>68900</v>
+      </c>
+      <c r="I45" s="3">
+        <v>600</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1711,29 +1809,32 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1147500</v>
+        <v>1364600</v>
       </c>
       <c r="E46" s="3">
-        <v>1307700</v>
+        <v>1112200</v>
       </c>
       <c r="F46" s="3">
-        <v>708800</v>
+        <v>1267500</v>
       </c>
       <c r="G46" s="3">
-        <v>641300</v>
+        <v>687100</v>
       </c>
       <c r="H46" s="3">
-        <v>437400</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>621600</v>
+      </c>
+      <c r="I46" s="3">
+        <v>424000</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1741,20 +1842,23 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4000</v>
+        <v>34200</v>
       </c>
       <c r="E47" s="3">
-        <v>50000</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+        <v>3900</v>
+      </c>
+      <c r="F47" s="3">
+        <v>48500</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1771,29 +1875,32 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>392700</v>
+        <v>425400</v>
       </c>
       <c r="E48" s="3">
-        <v>108900</v>
+        <v>380600</v>
       </c>
       <c r="F48" s="3">
-        <v>84000</v>
+        <v>105600</v>
       </c>
       <c r="G48" s="3">
-        <v>82000</v>
+        <v>81400</v>
       </c>
       <c r="H48" s="3">
-        <v>73200</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+        <v>79500</v>
+      </c>
+      <c r="I48" s="3">
+        <v>71000</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1801,29 +1908,32 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8900</v>
+        <v>6400</v>
       </c>
       <c r="E49" s="3">
-        <v>11500</v>
+        <v>8600</v>
       </c>
       <c r="F49" s="3">
-        <v>9800</v>
+        <v>11100</v>
       </c>
       <c r="G49" s="3">
-        <v>7100</v>
+        <v>9500</v>
       </c>
       <c r="H49" s="3">
-        <v>4500</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+        <v>6900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>4300</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -1831,9 +1941,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1861,9 +1974,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1891,29 +2007,32 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>50600</v>
+        <v>22300</v>
       </c>
       <c r="E52" s="3">
-        <v>43600</v>
+        <v>49100</v>
       </c>
       <c r="F52" s="3">
-        <v>27000</v>
+        <v>42300</v>
       </c>
       <c r="G52" s="3">
-        <v>12500</v>
+        <v>26100</v>
       </c>
       <c r="H52" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+        <v>12100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2900</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -1921,9 +2040,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1951,29 +2073,32 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1603700</v>
+        <v>1852800</v>
       </c>
       <c r="E54" s="3">
-        <v>1521700</v>
+        <v>1554400</v>
       </c>
       <c r="F54" s="3">
-        <v>829600</v>
+        <v>1474900</v>
       </c>
       <c r="G54" s="3">
-        <v>742900</v>
+        <v>804100</v>
       </c>
       <c r="H54" s="3">
-        <v>518200</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>720100</v>
+      </c>
+      <c r="I54" s="3">
+        <v>502300</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -1981,9 +2106,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1996,8 +2124,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2010,28 +2139,29 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>92300</v>
+        <v>416000</v>
       </c>
       <c r="E57" s="3">
-        <v>88800</v>
+        <v>89500</v>
       </c>
       <c r="F57" s="3">
-        <v>68700</v>
+        <v>86100</v>
       </c>
       <c r="G57" s="3">
-        <v>84100</v>
+        <v>66600</v>
       </c>
       <c r="H57" s="3">
-        <v>333900</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>81500</v>
+      </c>
+      <c r="I57" s="3">
+        <v>323700</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2039,29 +2169,32 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>36700</v>
+        <v>45300</v>
       </c>
       <c r="E58" s="3">
-        <v>47600</v>
+        <v>35600</v>
       </c>
       <c r="F58" s="3">
-        <v>88900</v>
+        <v>46100</v>
       </c>
       <c r="G58" s="3">
-        <v>26900</v>
+        <v>86100</v>
       </c>
       <c r="H58" s="3">
-        <v>19400</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>26100</v>
+      </c>
+      <c r="I58" s="3">
+        <v>18800</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2069,29 +2202,32 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>409500</v>
+        <v>74000</v>
       </c>
       <c r="E59" s="3">
-        <v>358700</v>
+        <v>396900</v>
       </c>
       <c r="F59" s="3">
-        <v>312900</v>
+        <v>347700</v>
       </c>
       <c r="G59" s="3">
-        <v>350400</v>
+        <v>303300</v>
       </c>
       <c r="H59" s="3">
-        <v>29300</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>339600</v>
+      </c>
+      <c r="I59" s="3">
+        <v>28400</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2099,29 +2235,32 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>538600</v>
+        <v>535400</v>
       </c>
       <c r="E60" s="3">
-        <v>495100</v>
+        <v>522000</v>
       </c>
       <c r="F60" s="3">
-        <v>470500</v>
+        <v>479900</v>
       </c>
       <c r="G60" s="3">
-        <v>461400</v>
+        <v>456000</v>
       </c>
       <c r="H60" s="3">
-        <v>382600</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>447200</v>
+      </c>
+      <c r="I60" s="3">
+        <v>370900</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2129,29 +2268,32 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>56800</v>
+        <v>77700</v>
       </c>
       <c r="E61" s="3">
-        <v>69700</v>
+        <v>55100</v>
       </c>
       <c r="F61" s="3">
-        <v>394500</v>
+        <v>67500</v>
       </c>
       <c r="G61" s="3">
-        <v>286600</v>
+        <v>382400</v>
       </c>
       <c r="H61" s="3">
-        <v>49100</v>
+        <v>277800</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>47600</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2159,29 +2301,32 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9400</v>
+        <v>11000</v>
       </c>
       <c r="E62" s="3">
-        <v>11400</v>
+        <v>9100</v>
       </c>
       <c r="F62" s="3">
-        <v>10600</v>
+        <v>11000</v>
       </c>
       <c r="G62" s="3">
-        <v>11000</v>
+        <v>10200</v>
       </c>
       <c r="H62" s="3">
-        <v>6200</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+        <v>10700</v>
+      </c>
+      <c r="I62" s="3">
+        <v>6000</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2189,9 +2334,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2219,9 +2367,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2249,9 +2400,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2279,29 +2433,32 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>604200</v>
+        <v>626400</v>
       </c>
       <c r="E66" s="3">
-        <v>575100</v>
+        <v>585600</v>
       </c>
       <c r="F66" s="3">
-        <v>877500</v>
+        <v>557500</v>
       </c>
       <c r="G66" s="3">
-        <v>760600</v>
+        <v>850500</v>
       </c>
       <c r="H66" s="3">
-        <v>438100</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>737200</v>
+      </c>
+      <c r="I66" s="3">
+        <v>424700</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2309,9 +2466,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2324,8 +2484,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2353,9 +2514,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2383,9 +2547,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2413,9 +2580,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2443,29 +2613,32 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-135200</v>
+        <v>226800</v>
       </c>
       <c r="E72" s="3">
-        <v>-231700</v>
+        <v>-131100</v>
       </c>
       <c r="F72" s="3">
-        <v>-70900</v>
+        <v>-224600</v>
       </c>
       <c r="G72" s="3">
-        <v>-37800</v>
+        <v>-68800</v>
       </c>
       <c r="H72" s="3">
-        <v>27400</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>-36600</v>
+      </c>
+      <c r="I72" s="3">
+        <v>26600</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2473,9 +2646,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2503,9 +2679,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2533,9 +2712,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2563,29 +2745,32 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>999500</v>
+        <v>1226400</v>
       </c>
       <c r="E76" s="3">
-        <v>946600</v>
+        <v>968800</v>
       </c>
       <c r="F76" s="3">
-        <v>-47900</v>
+        <v>917500</v>
       </c>
       <c r="G76" s="3">
-        <v>-17700</v>
+        <v>-46400</v>
       </c>
       <c r="H76" s="3">
-        <v>80000</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>-17200</v>
+      </c>
+      <c r="I76" s="3">
+        <v>77600</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2593,9 +2778,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2623,64 +2811,70 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43282</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>90700</v>
+        <v>243700</v>
       </c>
       <c r="E81" s="3">
-        <v>-201100</v>
+        <v>87900</v>
       </c>
       <c r="F81" s="3">
-        <v>-37300</v>
+        <v>-195000</v>
       </c>
       <c r="G81" s="3">
-        <v>-41300</v>
+        <v>-36100</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>-40000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2688,9 +2882,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2703,19 +2900,20 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>55400</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
-        <v>37700</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+        <v>53700</v>
+      </c>
+      <c r="F83" s="3">
+        <v>36500</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2732,9 +2930,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2762,9 +2963,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2792,9 +2996,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2822,9 +3029,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2852,9 +3062,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2882,26 +3095,29 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>199900</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>130300</v>
+        <v>193800</v>
       </c>
       <c r="F89" s="3">
-        <v>117500</v>
+        <v>126300</v>
       </c>
       <c r="G89" s="3">
-        <v>147600</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>113900</v>
+      </c>
+      <c r="H89" s="3">
+        <v>143100</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2912,9 +3128,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2927,25 +3146,26 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-41200</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>-25600</v>
+        <v>-40000</v>
       </c>
       <c r="F91" s="3">
-        <v>-8100</v>
+        <v>-24800</v>
       </c>
       <c r="G91" s="3">
-        <v>-16500</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+        <v>-7800</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-16000</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -2956,9 +3176,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2986,9 +3209,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3016,26 +3242,29 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-302200</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>-73700</v>
+        <v>-292900</v>
       </c>
       <c r="F94" s="3">
-        <v>65800</v>
+        <v>-71500</v>
       </c>
       <c r="G94" s="3">
-        <v>-30000</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>63800</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-29100</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3046,9 +3275,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3061,16 +3293,17 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-43500</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-42200</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3090,9 +3323,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3120,9 +3356,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3150,9 +3389,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3180,26 +3422,29 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-104300</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>502700</v>
+        <v>-101100</v>
       </c>
       <c r="F100" s="3">
-        <v>-16700</v>
+        <v>487200</v>
       </c>
       <c r="G100" s="3">
-        <v>88100</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>-16200</v>
+      </c>
+      <c r="H100" s="3">
+        <v>85400</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3210,27 +3455,30 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>4300</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
-        <v>-2300</v>
+        <v>4100</v>
       </c>
       <c r="F101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1500</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3240,26 +3488,29 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-202300</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>556900</v>
+        <v>-196100</v>
       </c>
       <c r="F102" s="3">
-        <v>166000</v>
+        <v>539800</v>
       </c>
       <c r="G102" s="3">
-        <v>207300</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>160900</v>
+      </c>
+      <c r="H102" s="3">
+        <v>200900</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3270,7 +3521,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MNSO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MNSO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
   <si>
     <t>MNSO</t>
   </si>
@@ -719,19 +719,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1580800</v>
+        <v>1584200</v>
       </c>
       <c r="E8" s="3">
-        <v>1389600</v>
+        <v>1392600</v>
       </c>
       <c r="F8" s="3">
-        <v>1249900</v>
+        <v>1252600</v>
       </c>
       <c r="G8" s="3">
-        <v>1237100</v>
+        <v>1239800</v>
       </c>
       <c r="H8" s="3">
-        <v>1294400</v>
+        <v>1297200</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -752,19 +752,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>968600</v>
+        <v>970700</v>
       </c>
       <c r="E9" s="3">
-        <v>966600</v>
+        <v>968800</v>
       </c>
       <c r="F9" s="3">
-        <v>915000</v>
+        <v>917000</v>
       </c>
       <c r="G9" s="3">
-        <v>860600</v>
+        <v>862500</v>
       </c>
       <c r="H9" s="3">
-        <v>948500</v>
+        <v>950500</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -785,19 +785,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>612200</v>
+        <v>613500</v>
       </c>
       <c r="E10" s="3">
-        <v>423000</v>
+        <v>423900</v>
       </c>
       <c r="F10" s="3">
-        <v>334900</v>
+        <v>335600</v>
       </c>
       <c r="G10" s="3">
-        <v>376500</v>
+        <v>377300</v>
       </c>
       <c r="H10" s="3">
-        <v>346000</v>
+        <v>346700</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -899,7 +899,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>500</v>
+        <v>4400</v>
       </c>
       <c r="E14" s="3">
         <v>-100</v>
@@ -977,19 +977,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1274500</v>
+        <v>1277300</v>
       </c>
       <c r="E17" s="3">
-        <v>1268100</v>
+        <v>1270800</v>
       </c>
       <c r="F17" s="3">
-        <v>1194600</v>
+        <v>1197200</v>
       </c>
       <c r="G17" s="3">
-        <v>1131500</v>
+        <v>1134000</v>
       </c>
       <c r="H17" s="3">
-        <v>1154400</v>
+        <v>1156900</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1010,19 +1010,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>306300</v>
+        <v>307000</v>
       </c>
       <c r="E18" s="3">
-        <v>121500</v>
+        <v>121800</v>
       </c>
       <c r="F18" s="3">
-        <v>55300</v>
+        <v>55400</v>
       </c>
       <c r="G18" s="3">
-        <v>105600</v>
+        <v>105800</v>
       </c>
       <c r="H18" s="3">
-        <v>140100</v>
+        <v>140400</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1058,19 +1058,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>15200</v>
+        <v>20100</v>
       </c>
       <c r="E20" s="3">
         <v>8000</v>
       </c>
       <c r="F20" s="3">
-        <v>-218900</v>
+        <v>-219400</v>
       </c>
       <c r="G20" s="3">
-        <v>-90200</v>
+        <v>-90400</v>
       </c>
       <c r="H20" s="3">
-        <v>-96800</v>
+        <v>-97000</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1090,14 +1090,14 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>381000</v>
       </c>
       <c r="E21" s="3">
-        <v>183300</v>
+        <v>183600</v>
       </c>
       <c r="F21" s="3">
-        <v>-127100</v>
+        <v>-127400</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1123,8 +1123,8 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>4800</v>
       </c>
       <c r="E22" s="3">
         <v>4600</v>
@@ -1157,19 +1157,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>321500</v>
+        <v>322200</v>
       </c>
       <c r="E23" s="3">
-        <v>124900</v>
+        <v>125200</v>
       </c>
       <c r="F23" s="3">
-        <v>-167600</v>
+        <v>-167900</v>
       </c>
       <c r="G23" s="3">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="H23" s="3">
-        <v>39800</v>
+        <v>39900</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>76000</v>
+        <v>76200</v>
       </c>
       <c r="E24" s="3">
-        <v>36800</v>
+        <v>36900</v>
       </c>
       <c r="F24" s="3">
         <v>29400</v>
@@ -1202,7 +1202,7 @@
         <v>29100</v>
       </c>
       <c r="H24" s="3">
-        <v>38500</v>
+        <v>38600</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1256,16 +1256,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>245500</v>
+        <v>246000</v>
       </c>
       <c r="E26" s="3">
-        <v>88100</v>
+        <v>88300</v>
       </c>
       <c r="F26" s="3">
-        <v>-196900</v>
+        <v>-197400</v>
       </c>
       <c r="G26" s="3">
-        <v>-17900</v>
+        <v>-18000</v>
       </c>
       <c r="H26" s="3">
         <v>1300</v>
@@ -1289,16 +1289,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>243700</v>
+        <v>244300</v>
       </c>
       <c r="E27" s="3">
-        <v>87900</v>
+        <v>88100</v>
       </c>
       <c r="F27" s="3">
-        <v>-195000</v>
+        <v>-195400</v>
       </c>
       <c r="G27" s="3">
-        <v>-18200</v>
+        <v>-18300</v>
       </c>
       <c r="H27" s="3">
         <v>1800</v>
@@ -1364,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-17900</v>
+        <v>-18000</v>
       </c>
       <c r="H29" s="3">
-        <v>-41900</v>
+        <v>-42000</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
@@ -1454,19 +1454,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-15200</v>
+        <v>-20100</v>
       </c>
       <c r="E32" s="3">
         <v>-8000</v>
       </c>
       <c r="F32" s="3">
-        <v>218900</v>
+        <v>219400</v>
       </c>
       <c r="G32" s="3">
-        <v>90200</v>
+        <v>90400</v>
       </c>
       <c r="H32" s="3">
-        <v>96800</v>
+        <v>97000</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1487,19 +1487,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>243700</v>
+        <v>244300</v>
       </c>
       <c r="E33" s="3">
-        <v>87900</v>
+        <v>88100</v>
       </c>
       <c r="F33" s="3">
-        <v>-195000</v>
+        <v>-195400</v>
       </c>
       <c r="G33" s="3">
-        <v>-36100</v>
+        <v>-36200</v>
       </c>
       <c r="H33" s="3">
-        <v>-40000</v>
+        <v>-40100</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
@@ -1553,19 +1553,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>243700</v>
+        <v>244300</v>
       </c>
       <c r="E35" s="3">
-        <v>87900</v>
+        <v>88100</v>
       </c>
       <c r="F35" s="3">
-        <v>-195000</v>
+        <v>-195400</v>
       </c>
       <c r="G35" s="3">
-        <v>-36100</v>
+        <v>-36200</v>
       </c>
       <c r="H35" s="3">
-        <v>-40000</v>
+        <v>-40100</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>894100</v>
+        <v>896000</v>
       </c>
       <c r="E41" s="3">
-        <v>736900</v>
+        <v>738500</v>
       </c>
       <c r="F41" s="3">
-        <v>933000</v>
+        <v>935000</v>
       </c>
       <c r="G41" s="3">
-        <v>393200</v>
+        <v>394100</v>
       </c>
       <c r="H41" s="3">
-        <v>213000</v>
+        <v>213500</v>
       </c>
       <c r="I41" s="3">
-        <v>31400</v>
+        <v>31500</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1687,10 +1687,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>108400</v>
+        <v>108700</v>
       </c>
       <c r="E42" s="3">
-        <v>61600</v>
+        <v>61800</v>
       </c>
       <c r="F42" s="3">
         <v>14200</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>49100</v>
+        <v>49200</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -1720,22 +1720,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>158500</v>
+        <v>143900</v>
       </c>
       <c r="E43" s="3">
-        <v>125400</v>
+        <v>125600</v>
       </c>
       <c r="F43" s="3">
-        <v>106700</v>
+        <v>106900</v>
       </c>
       <c r="G43" s="3">
-        <v>91500</v>
+        <v>91700</v>
       </c>
       <c r="H43" s="3">
-        <v>110200</v>
+        <v>110400</v>
       </c>
       <c r="I43" s="3">
-        <v>241800</v>
+        <v>242300</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1753,22 +1753,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>199900</v>
+        <v>200300</v>
       </c>
       <c r="E44" s="3">
-        <v>163700</v>
+        <v>164100</v>
       </c>
       <c r="F44" s="3">
-        <v>206100</v>
+        <v>206600</v>
       </c>
       <c r="G44" s="3">
-        <v>192300</v>
+        <v>192700</v>
       </c>
       <c r="H44" s="3">
-        <v>180300</v>
+        <v>180700</v>
       </c>
       <c r="I44" s="3">
-        <v>150100</v>
+        <v>150400</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1786,10 +1786,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3700</v>
+        <v>18600</v>
       </c>
       <c r="E45" s="3">
-        <v>24600</v>
+        <v>24700</v>
       </c>
       <c r="F45" s="3">
         <v>7400</v>
@@ -1798,7 +1798,7 @@
         <v>10000</v>
       </c>
       <c r="H45" s="3">
-        <v>68900</v>
+        <v>69100</v>
       </c>
       <c r="I45" s="3">
         <v>600</v>
@@ -1819,22 +1819,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1364600</v>
+        <v>1367500</v>
       </c>
       <c r="E46" s="3">
-        <v>1112200</v>
+        <v>1114700</v>
       </c>
       <c r="F46" s="3">
-        <v>1267500</v>
+        <v>1270200</v>
       </c>
       <c r="G46" s="3">
-        <v>687100</v>
+        <v>688500</v>
       </c>
       <c r="H46" s="3">
-        <v>621600</v>
+        <v>623000</v>
       </c>
       <c r="I46" s="3">
-        <v>424000</v>
+        <v>424900</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1852,13 +1852,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>34200</v>
+        <v>34300</v>
       </c>
       <c r="E47" s="3">
         <v>3900</v>
       </c>
       <c r="F47" s="3">
-        <v>48500</v>
+        <v>48600</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1885,22 +1885,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>425400</v>
+        <v>426300</v>
       </c>
       <c r="E48" s="3">
-        <v>380600</v>
+        <v>381400</v>
       </c>
       <c r="F48" s="3">
-        <v>105600</v>
+        <v>105800</v>
       </c>
       <c r="G48" s="3">
-        <v>81400</v>
+        <v>81600</v>
       </c>
       <c r="H48" s="3">
-        <v>79500</v>
+        <v>79600</v>
       </c>
       <c r="I48" s="3">
-        <v>71000</v>
+        <v>71100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2020,13 +2020,13 @@
         <v>22300</v>
       </c>
       <c r="E52" s="3">
-        <v>49100</v>
+        <v>49200</v>
       </c>
       <c r="F52" s="3">
-        <v>42300</v>
+        <v>42400</v>
       </c>
       <c r="G52" s="3">
-        <v>26100</v>
+        <v>26200</v>
       </c>
       <c r="H52" s="3">
         <v>12100</v>
@@ -2083,22 +2083,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1852800</v>
+        <v>1856900</v>
       </c>
       <c r="E54" s="3">
-        <v>1554400</v>
+        <v>1557800</v>
       </c>
       <c r="F54" s="3">
-        <v>1474900</v>
+        <v>1478200</v>
       </c>
       <c r="G54" s="3">
-        <v>804100</v>
+        <v>805900</v>
       </c>
       <c r="H54" s="3">
-        <v>720100</v>
+        <v>721600</v>
       </c>
       <c r="I54" s="3">
-        <v>502300</v>
+        <v>503400</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2146,22 +2146,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>416000</v>
+        <v>90300</v>
       </c>
       <c r="E57" s="3">
-        <v>89500</v>
+        <v>89700</v>
       </c>
       <c r="F57" s="3">
-        <v>86100</v>
+        <v>86300</v>
       </c>
       <c r="G57" s="3">
-        <v>66600</v>
+        <v>66700</v>
       </c>
       <c r="H57" s="3">
-        <v>81500</v>
+        <v>81700</v>
       </c>
       <c r="I57" s="3">
-        <v>323700</v>
+        <v>324400</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2179,19 +2179,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>45300</v>
+        <v>45400</v>
       </c>
       <c r="E58" s="3">
-        <v>35600</v>
+        <v>35700</v>
       </c>
       <c r="F58" s="3">
-        <v>46100</v>
+        <v>46200</v>
       </c>
       <c r="G58" s="3">
-        <v>86100</v>
+        <v>86300</v>
       </c>
       <c r="H58" s="3">
-        <v>26100</v>
+        <v>26200</v>
       </c>
       <c r="I58" s="3">
         <v>18800</v>
@@ -2212,22 +2212,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>74000</v>
+        <v>400800</v>
       </c>
       <c r="E59" s="3">
-        <v>396900</v>
+        <v>397800</v>
       </c>
       <c r="F59" s="3">
-        <v>347700</v>
+        <v>348400</v>
       </c>
       <c r="G59" s="3">
-        <v>303300</v>
+        <v>303900</v>
       </c>
       <c r="H59" s="3">
-        <v>339600</v>
+        <v>340400</v>
       </c>
       <c r="I59" s="3">
-        <v>28400</v>
+        <v>28500</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2245,22 +2245,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>535400</v>
+        <v>536500</v>
       </c>
       <c r="E60" s="3">
-        <v>522000</v>
+        <v>523100</v>
       </c>
       <c r="F60" s="3">
-        <v>479900</v>
+        <v>480900</v>
       </c>
       <c r="G60" s="3">
-        <v>456000</v>
+        <v>457000</v>
       </c>
       <c r="H60" s="3">
-        <v>447200</v>
+        <v>448200</v>
       </c>
       <c r="I60" s="3">
-        <v>370900</v>
+        <v>371700</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2278,22 +2278,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>77700</v>
+        <v>77900</v>
       </c>
       <c r="E61" s="3">
-        <v>55100</v>
+        <v>55200</v>
       </c>
       <c r="F61" s="3">
-        <v>67500</v>
+        <v>67700</v>
       </c>
       <c r="G61" s="3">
-        <v>382400</v>
+        <v>383200</v>
       </c>
       <c r="H61" s="3">
-        <v>277800</v>
+        <v>278400</v>
       </c>
       <c r="I61" s="3">
-        <v>47600</v>
+        <v>47700</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2443,22 +2443,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>626400</v>
+        <v>627800</v>
       </c>
       <c r="E66" s="3">
-        <v>585600</v>
+        <v>586900</v>
       </c>
       <c r="F66" s="3">
-        <v>557500</v>
+        <v>558700</v>
       </c>
       <c r="G66" s="3">
-        <v>850500</v>
+        <v>852400</v>
       </c>
       <c r="H66" s="3">
-        <v>737200</v>
+        <v>738900</v>
       </c>
       <c r="I66" s="3">
-        <v>424700</v>
+        <v>425600</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2623,19 +2623,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>226800</v>
+        <v>227300</v>
       </c>
       <c r="E72" s="3">
-        <v>-131100</v>
+        <v>-131400</v>
       </c>
       <c r="F72" s="3">
-        <v>-224600</v>
+        <v>-225100</v>
       </c>
       <c r="G72" s="3">
-        <v>-68800</v>
+        <v>-68900</v>
       </c>
       <c r="H72" s="3">
-        <v>-36600</v>
+        <v>-36700</v>
       </c>
       <c r="I72" s="3">
         <v>26600</v>
@@ -2755,22 +2755,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1226400</v>
+        <v>1229100</v>
       </c>
       <c r="E76" s="3">
-        <v>968800</v>
+        <v>970900</v>
       </c>
       <c r="F76" s="3">
-        <v>917500</v>
+        <v>919500</v>
       </c>
       <c r="G76" s="3">
-        <v>-46400</v>
+        <v>-46500</v>
       </c>
       <c r="H76" s="3">
         <v>-17200</v>
       </c>
       <c r="I76" s="3">
-        <v>77600</v>
+        <v>77800</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2859,19 +2859,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>243700</v>
+        <v>244300</v>
       </c>
       <c r="E81" s="3">
-        <v>87900</v>
+        <v>88100</v>
       </c>
       <c r="F81" s="3">
-        <v>-195000</v>
+        <v>-195400</v>
       </c>
       <c r="G81" s="3">
-        <v>-36100</v>
+        <v>-36200</v>
       </c>
       <c r="H81" s="3">
-        <v>-40000</v>
+        <v>-40100</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
@@ -2906,14 +2906,14 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>54000</v>
       </c>
       <c r="E83" s="3">
-        <v>53700</v>
+        <v>53800</v>
       </c>
       <c r="F83" s="3">
-        <v>36500</v>
+        <v>36600</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -3104,20 +3104,20 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>230000</v>
       </c>
       <c r="E89" s="3">
-        <v>193800</v>
+        <v>194200</v>
       </c>
       <c r="F89" s="3">
-        <v>126300</v>
+        <v>126500</v>
       </c>
       <c r="G89" s="3">
-        <v>113900</v>
+        <v>114100</v>
       </c>
       <c r="H89" s="3">
-        <v>143100</v>
+        <v>143400</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3152,17 +3152,17 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-24000</v>
       </c>
       <c r="E91" s="3">
-        <v>-40000</v>
+        <v>-40100</v>
       </c>
       <c r="F91" s="3">
-        <v>-24800</v>
+        <v>-24900</v>
       </c>
       <c r="G91" s="3">
-        <v>-7800</v>
+        <v>-7900</v>
       </c>
       <c r="H91" s="3">
         <v>-16000</v>
@@ -3251,17 +3251,17 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-40500</v>
       </c>
       <c r="E94" s="3">
-        <v>-292900</v>
+        <v>-293500</v>
       </c>
       <c r="F94" s="3">
-        <v>-71500</v>
+        <v>-71600</v>
       </c>
       <c r="G94" s="3">
-        <v>63800</v>
+        <v>63900</v>
       </c>
       <c r="H94" s="3">
         <v>-29100</v>
@@ -3300,10 +3300,10 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-51200</v>
       </c>
       <c r="E96" s="3">
-        <v>-42200</v>
+        <v>-42300</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3431,20 +3431,20 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>-45000</v>
       </c>
       <c r="E100" s="3">
-        <v>-101100</v>
+        <v>-101300</v>
       </c>
       <c r="F100" s="3">
-        <v>487200</v>
+        <v>488300</v>
       </c>
       <c r="G100" s="3">
-        <v>-16200</v>
+        <v>-16300</v>
       </c>
       <c r="H100" s="3">
-        <v>85400</v>
+        <v>85600</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3464,8 +3464,8 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>13000</v>
       </c>
       <c r="E101" s="3">
         <v>4100</v>
@@ -3497,20 +3497,20 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>157500</v>
       </c>
       <c r="E102" s="3">
-        <v>-196100</v>
+        <v>-196500</v>
       </c>
       <c r="F102" s="3">
-        <v>539800</v>
+        <v>541000</v>
       </c>
       <c r="G102" s="3">
-        <v>160900</v>
+        <v>161200</v>
       </c>
       <c r="H102" s="3">
-        <v>200900</v>
+        <v>201300</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
